--- a/raw_data/20200818_saline/20200818_Sensor3_Test_76.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_76.xlsx
@@ -1,1913 +1,2329 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DA6689-464C-4F30-8EA6-5B50E018E067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>68056.582607</v>
+        <v>68056.582607000004</v>
       </c>
       <c r="B2" s="1">
-        <v>18.904606</v>
+        <v>18.904606000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1143.480000</v>
+        <v>1143.48</v>
       </c>
       <c r="D2" s="1">
-        <v>-261.258000</v>
+        <v>-261.25799999999998</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>68066.650127</v>
+        <v>68066.650127000001</v>
       </c>
       <c r="G2" s="1">
-        <v>18.907403</v>
+        <v>18.907402999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>1166.680000</v>
+        <v>1166.68</v>
       </c>
       <c r="I2" s="1">
-        <v>-219.987000</v>
+        <v>-219.98699999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>68076.758131</v>
+        <v>68076.758130999995</v>
       </c>
       <c r="L2" s="1">
         <v>18.910211</v>
       </c>
       <c r="M2" s="1">
-        <v>1195.510000</v>
+        <v>1195.51</v>
       </c>
       <c r="N2" s="1">
-        <v>-153.322000</v>
+        <v>-153.322</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>68087.208344</v>
+        <v>68087.208343999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>18.913113</v>
+        <v>18.913112999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1203.760000</v>
+        <v>1203.76</v>
       </c>
       <c r="S2" s="1">
-        <v>-130.959000</v>
+        <v>-130.959</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>68097.778796</v>
+        <v>68097.778795999999</v>
       </c>
       <c r="V2" s="1">
-        <v>18.916050</v>
+        <v>18.916049999999998</v>
       </c>
       <c r="W2" s="1">
-        <v>1211.790000</v>
+        <v>1211.79</v>
       </c>
       <c r="X2" s="1">
-        <v>-109.735000</v>
+        <v>-109.735</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>68108.261498</v>
+        <v>68108.261498000007</v>
       </c>
       <c r="AA2" s="1">
-        <v>18.918962</v>
+        <v>18.918962000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1219.330000</v>
+        <v>1219.33</v>
       </c>
       <c r="AC2" s="1">
-        <v>-92.044800</v>
+        <v>-92.044799999999995</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>68118.804458</v>
+        <v>68118.804457999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>18.921890</v>
+        <v>18.921890000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1224.390000</v>
+        <v>1224.3900000000001</v>
       </c>
       <c r="AH2" s="1">
-        <v>-87.516200</v>
+        <v>-87.516199999999998</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>68128.937756</v>
+        <v>68128.937755999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>18.924705</v>
+        <v>18.924704999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>1231.410000</v>
+        <v>1231.4100000000001</v>
       </c>
       <c r="AM2" s="1">
-        <v>-90.329500</v>
+        <v>-90.329499999999996</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>68139.533791</v>
+        <v>68139.533790999994</v>
       </c>
       <c r="AP2" s="1">
-        <v>18.927648</v>
+        <v>18.927648000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1239.420000</v>
+        <v>1239.42</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.137000</v>
+        <v>-102.137</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>68150.537009</v>
+        <v>68150.537009000007</v>
       </c>
       <c r="AU2" s="1">
         <v>18.930705</v>
       </c>
       <c r="AV2" s="1">
-        <v>1249.540000</v>
+        <v>1249.54</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.386000</v>
+        <v>-121.386</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>68162.002045</v>
+        <v>68162.002045000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>18.933889</v>
+        <v>18.933889000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1258.090000</v>
+        <v>1258.0899999999999</v>
       </c>
       <c r="BB2" s="1">
-        <v>-138.793000</v>
+        <v>-138.79300000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>68172.882772</v>
+        <v>68172.882771999997</v>
       </c>
       <c r="BE2" s="1">
         <v>18.936912</v>
       </c>
       <c r="BF2" s="1">
-        <v>1298.670000</v>
+        <v>1298.67</v>
       </c>
       <c r="BG2" s="1">
-        <v>-220.524000</v>
+        <v>-220.524</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>68183.983269</v>
+        <v>68183.983269000004</v>
       </c>
       <c r="BJ2" s="1">
         <v>18.939995</v>
       </c>
       <c r="BK2" s="1">
-        <v>1368.940000</v>
+        <v>1368.94</v>
       </c>
       <c r="BL2" s="1">
-        <v>-356.123000</v>
+        <v>-356.12299999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>68195.973068</v>
+        <v>68195.973068000007</v>
       </c>
       <c r="BO2" s="1">
-        <v>18.943326</v>
+        <v>18.943325999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1484.360000</v>
+        <v>1484.36</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-576.456000</v>
+        <v>-576.45600000000002</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>68207.156325</v>
+        <v>68207.156325000004</v>
       </c>
       <c r="BT2" s="1">
-        <v>18.946432</v>
+        <v>18.946432000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1616.890000</v>
+        <v>1616.89</v>
       </c>
       <c r="BV2" s="1">
-        <v>-824.000000</v>
+        <v>-824</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>68218.070296</v>
+        <v>68218.070296000005</v>
       </c>
       <c r="BY2" s="1">
-        <v>18.949464</v>
+        <v>18.949463999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1770.330000</v>
+        <v>1770.33</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1092.550000</v>
+        <v>-1092.55</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>68229.269960</v>
+        <v>68229.269960000005</v>
       </c>
       <c r="CD2" s="1">
         <v>18.952575</v>
       </c>
       <c r="CE2" s="1">
-        <v>2187.510000</v>
+        <v>2187.5100000000002</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1739.400000</v>
+        <v>-1739.4</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>68056.949102</v>
+        <v>68056.949101999999</v>
       </c>
       <c r="B3" s="1">
-        <v>18.904708</v>
+        <v>18.904707999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1143.390000</v>
+        <v>1143.3900000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-261.083000</v>
+        <v>-261.08300000000003</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>68066.996367</v>
       </c>
       <c r="G3" s="1">
-        <v>18.907499</v>
+        <v>18.907499000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1165.980000</v>
+        <v>1165.98</v>
       </c>
       <c r="I3" s="1">
-        <v>-219.593000</v>
+        <v>-219.59299999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>68077.174273</v>
+        <v>68077.174272999997</v>
       </c>
       <c r="L3" s="1">
-        <v>18.910326</v>
+        <v>18.910326000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>1195.440000</v>
+        <v>1195.44</v>
       </c>
       <c r="N3" s="1">
-        <v>-153.381000</v>
+        <v>-153.381</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>68087.624947</v>
+        <v>68087.624947000004</v>
       </c>
       <c r="Q3" s="1">
-        <v>18.913229</v>
+        <v>18.913229000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1203.780000</v>
+        <v>1203.78</v>
       </c>
       <c r="S3" s="1">
-        <v>-130.937000</v>
+        <v>-130.93700000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>68098.179845</v>
+        <v>68098.179845000006</v>
       </c>
       <c r="V3" s="1">
-        <v>18.916161</v>
+        <v>18.916160999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1211.600000</v>
+        <v>1211.5999999999999</v>
       </c>
       <c r="X3" s="1">
-        <v>-109.535000</v>
+        <v>-109.535</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>68108.627839</v>
+        <v>68108.627838999993</v>
       </c>
       <c r="AA3" s="1">
-        <v>18.919063</v>
+        <v>18.919063000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1219.410000</v>
+        <v>1219.4100000000001</v>
       </c>
       <c r="AC3" s="1">
-        <v>-92.061100</v>
+        <v>-92.061099999999996</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>68119.180426</v>
+        <v>68119.180426000006</v>
       </c>
       <c r="AF3" s="1">
-        <v>18.921995</v>
+        <v>18.921994999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>1224.140000</v>
+        <v>1224.1400000000001</v>
       </c>
       <c r="AH3" s="1">
-        <v>-87.247700</v>
+        <v>-87.247699999999995</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>68129.326093</v>
+        <v>68129.326092999996</v>
       </c>
       <c r="AK3" s="1">
         <v>18.924813</v>
       </c>
       <c r="AL3" s="1">
-        <v>1231.400000</v>
+        <v>1231.4000000000001</v>
       </c>
       <c r="AM3" s="1">
-        <v>-90.343300</v>
+        <v>-90.343299999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>68140.295119</v>
+        <v>68140.295119000002</v>
       </c>
       <c r="AP3" s="1">
-        <v>18.927860</v>
+        <v>18.927859999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1239.440000</v>
+        <v>1239.44</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.102000</v>
+        <v>-102.102</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>68151.296384</v>
+        <v>68151.296384000001</v>
       </c>
       <c r="AU3" s="1">
         <v>18.930916</v>
       </c>
       <c r="AV3" s="1">
-        <v>1249.550000</v>
+        <v>1249.55</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.394000</v>
+        <v>-121.39400000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>68162.388431</v>
+        <v>68162.388430999999</v>
       </c>
       <c r="AZ3" s="1">
-        <v>18.933997</v>
+        <v>18.933997000000002</v>
       </c>
       <c r="BA3" s="1">
-        <v>1258.060000</v>
+        <v>1258.06</v>
       </c>
       <c r="BB3" s="1">
-        <v>-138.834000</v>
+        <v>-138.834</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>68173.314291</v>
+        <v>68173.314291000002</v>
       </c>
       <c r="BE3" s="1">
-        <v>18.937032</v>
+        <v>18.937031999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1298.700000</v>
+        <v>1298.7</v>
       </c>
       <c r="BG3" s="1">
-        <v>-220.508000</v>
+        <v>-220.50800000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>68184.397923</v>
+        <v>68184.397922999997</v>
       </c>
       <c r="BJ3" s="1">
-        <v>18.940111</v>
+        <v>18.940111000000002</v>
       </c>
       <c r="BK3" s="1">
-        <v>1369.040000</v>
+        <v>1369.04</v>
       </c>
       <c r="BL3" s="1">
-        <v>-356.193000</v>
+        <v>-356.19299999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>68196.710083</v>
+        <v>68196.710082999998</v>
       </c>
       <c r="BO3" s="1">
         <v>18.943531</v>
       </c>
       <c r="BP3" s="1">
-        <v>1484.330000</v>
+        <v>1484.33</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-576.415000</v>
+        <v>-576.41499999999996</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>68207.924667</v>
+        <v>68207.924666999999</v>
       </c>
       <c r="BT3" s="1">
-        <v>18.946646</v>
+        <v>18.946646000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1616.950000</v>
+        <v>1616.95</v>
       </c>
       <c r="BV3" s="1">
-        <v>-824.016000</v>
+        <v>-824.01599999999996</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>68218.239431</v>
+        <v>68218.239430999995</v>
       </c>
       <c r="BY3" s="1">
-        <v>18.949511</v>
+        <v>18.949511000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1770.340000</v>
+        <v>1770.34</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1092.470000</v>
+        <v>-1092.47</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>68229.861689</v>
+        <v>68229.861688999998</v>
       </c>
       <c r="CD3" s="1">
-        <v>18.952739</v>
+        <v>18.952739000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>2189.200000</v>
+        <v>2189.1999999999998</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1740.890000</v>
+        <v>-1740.89</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>68057.360068</v>
+        <v>68057.360067999994</v>
       </c>
       <c r="B4" s="1">
-        <v>18.904822</v>
+        <v>18.904821999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>1143.430000</v>
+        <v>1143.43</v>
       </c>
       <c r="D4" s="1">
-        <v>-261.254000</v>
+        <v>-261.25400000000002</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>68067.410494</v>
+        <v>68067.410493999996</v>
       </c>
       <c r="G4" s="1">
-        <v>18.907614</v>
+        <v>18.907613999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>1166.180000</v>
+        <v>1166.18</v>
       </c>
       <c r="I4" s="1">
-        <v>-219.343000</v>
+        <v>-219.34299999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>68077.489699</v>
+        <v>68077.489698999998</v>
       </c>
       <c r="L4" s="1">
-        <v>18.910414</v>
+        <v>18.910413999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1195.530000</v>
+        <v>1195.53</v>
       </c>
       <c r="N4" s="1">
-        <v>-153.462000</v>
+        <v>-153.46199999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>68087.971652</v>
+        <v>68087.971651999993</v>
       </c>
       <c r="Q4" s="1">
         <v>18.913325</v>
       </c>
       <c r="R4" s="1">
-        <v>1203.760000</v>
+        <v>1203.76</v>
       </c>
       <c r="S4" s="1">
-        <v>-130.936000</v>
+        <v>-130.93600000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>68098.523046</v>
+        <v>68098.523046000002</v>
       </c>
       <c r="V4" s="1">
-        <v>18.916256</v>
+        <v>18.916256000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>1211.600000</v>
+        <v>1211.5999999999999</v>
       </c>
       <c r="X4" s="1">
-        <v>-109.709000</v>
+        <v>-109.709</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>68108.976231</v>
+        <v>68108.976230999993</v>
       </c>
       <c r="AA4" s="1">
-        <v>18.919160</v>
+        <v>18.919160000000002</v>
       </c>
       <c r="AB4" s="1">
-        <v>1219.370000</v>
+        <v>1219.3699999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-92.115600</v>
+        <v>-92.115600000000001</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>68119.520720</v>
+        <v>68119.52072</v>
       </c>
       <c r="AF4" s="1">
         <v>18.922089</v>
       </c>
       <c r="AG4" s="1">
-        <v>1224.260000</v>
+        <v>1224.26</v>
       </c>
       <c r="AH4" s="1">
-        <v>-87.188700</v>
+        <v>-87.188699999999997</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>68130.023467</v>
+        <v>68130.023467000006</v>
       </c>
       <c r="AK4" s="1">
-        <v>18.925007</v>
+        <v>18.925007000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1231.390000</v>
+        <v>1231.3900000000001</v>
       </c>
       <c r="AM4" s="1">
-        <v>-90.361800</v>
+        <v>-90.361800000000002</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>68140.656701</v>
       </c>
       <c r="AP4" s="1">
-        <v>18.927960</v>
+        <v>18.927959999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1239.430000</v>
+        <v>1239.43</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.107000</v>
+        <v>-102.107</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>68151.661438</v>
+        <v>68151.661437999996</v>
       </c>
       <c r="AU4" s="1">
-        <v>18.931017</v>
+        <v>18.931017000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>1249.530000</v>
+        <v>1249.53</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.372000</v>
+        <v>-121.372</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>68162.749009</v>
+        <v>68162.749009000006</v>
       </c>
       <c r="AZ4" s="1">
-        <v>18.934097</v>
+        <v>18.934097000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1258.070000</v>
+        <v>1258.07</v>
       </c>
       <c r="BB4" s="1">
-        <v>-138.805000</v>
+        <v>-138.80500000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>68173.966033</v>
+        <v>68173.966033000004</v>
       </c>
       <c r="BE4" s="1">
         <v>18.937213</v>
       </c>
       <c r="BF4" s="1">
-        <v>1298.670000</v>
+        <v>1298.67</v>
       </c>
       <c r="BG4" s="1">
-        <v>-220.515000</v>
+        <v>-220.51499999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>68185.078403</v>
+        <v>68185.078403000007</v>
       </c>
       <c r="BJ4" s="1">
-        <v>18.940300</v>
+        <v>18.940300000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1368.970000</v>
+        <v>1368.97</v>
       </c>
       <c r="BL4" s="1">
-        <v>-356.175000</v>
+        <v>-356.17500000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>68196.820074</v>
+        <v>68196.820074000003</v>
       </c>
       <c r="BO4" s="1">
-        <v>18.943561</v>
+        <v>18.943560999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1484.310000</v>
+        <v>1484.31</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-576.455000</v>
+        <v>-576.45500000000004</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>68208.033750</v>
+        <v>68208.033750000002</v>
       </c>
       <c r="BT4" s="1">
         <v>18.946676</v>
       </c>
       <c r="BU4" s="1">
-        <v>1616.900000</v>
+        <v>1616.9</v>
       </c>
       <c r="BV4" s="1">
-        <v>-823.999000</v>
+        <v>-823.99900000000002</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>68218.690294</v>
       </c>
       <c r="BY4" s="1">
-        <v>18.949636</v>
+        <v>18.949636000000002</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1770.430000</v>
+        <v>1770.43</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1092.680000</v>
+        <v>-1092.68</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>68230.404310</v>
+        <v>68230.404309999998</v>
       </c>
       <c r="CD4" s="1">
-        <v>18.952890</v>
+        <v>18.95289</v>
       </c>
       <c r="CE4" s="1">
-        <v>2188.640000</v>
+        <v>2188.64</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1738.480000</v>
+        <v>-1738.48</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>68057.658183</v>
+        <v>68057.658183000007</v>
       </c>
       <c r="B5" s="1">
-        <v>18.904905</v>
+        <v>18.904904999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1143.670000</v>
+        <v>1143.67</v>
       </c>
       <c r="D5" s="1">
-        <v>-261.291000</v>
+        <v>-261.291</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>68067.686766</v>
+        <v>68067.686765999999</v>
       </c>
       <c r="G5" s="1">
         <v>18.907691</v>
       </c>
       <c r="H5" s="1">
-        <v>1165.600000</v>
+        <v>1165.5999999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-219.884000</v>
+        <v>-219.88399999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>68077.836400</v>
+        <v>68077.8364</v>
       </c>
       <c r="L5" s="1">
-        <v>18.910510</v>
+        <v>18.910509999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>1195.520000</v>
+        <v>1195.52</v>
       </c>
       <c r="N5" s="1">
-        <v>-153.373000</v>
+        <v>-153.37299999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>68088.320834</v>
+        <v>68088.320833999998</v>
       </c>
       <c r="Q5" s="1">
-        <v>18.913422</v>
+        <v>18.913422000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>1203.800000</v>
+        <v>1203.8</v>
       </c>
       <c r="S5" s="1">
-        <v>-130.945000</v>
+        <v>-130.94499999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>68098.866773</v>
+        <v>68098.866773000002</v>
       </c>
       <c r="V5" s="1">
         <v>18.916352</v>
       </c>
       <c r="W5" s="1">
-        <v>1211.670000</v>
+        <v>1211.67</v>
       </c>
       <c r="X5" s="1">
-        <v>-109.672000</v>
+        <v>-109.672</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>68109.676086</v>
+        <v>68109.676086000007</v>
       </c>
       <c r="AA5" s="1">
-        <v>18.919354</v>
+        <v>18.919353999999998</v>
       </c>
       <c r="AB5" s="1">
-        <v>1219.510000</v>
+        <v>1219.51</v>
       </c>
       <c r="AC5" s="1">
-        <v>-92.020800</v>
+        <v>-92.020799999999994</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>68120.208175</v>
+        <v>68120.208175000007</v>
       </c>
       <c r="AF5" s="1">
-        <v>18.922280</v>
+        <v>18.922280000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>1224.310000</v>
+        <v>1224.31</v>
       </c>
       <c r="AH5" s="1">
-        <v>-87.438200</v>
+        <v>-87.438199999999995</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>68130.369178</v>
+        <v>68130.369177999994</v>
       </c>
       <c r="AK5" s="1">
         <v>18.925103</v>
       </c>
       <c r="AL5" s="1">
-        <v>1231.410000</v>
+        <v>1231.4100000000001</v>
       </c>
       <c r="AM5" s="1">
-        <v>-90.352700</v>
+        <v>-90.352699999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>68141.013820</v>
+        <v>68141.013819999993</v>
       </c>
       <c r="AP5" s="1">
-        <v>18.928059</v>
+        <v>18.928059000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1239.440000</v>
+        <v>1239.44</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.122000</v>
+        <v>-102.122</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>68152.023024</v>
+        <v>68152.023023999995</v>
       </c>
       <c r="AU5" s="1">
-        <v>18.931118</v>
+        <v>18.931118000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1249.530000</v>
+        <v>1249.53</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.366000</v>
+        <v>-121.366</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>68163.410175</v>
+        <v>68163.410174999997</v>
       </c>
       <c r="AZ5" s="1">
-        <v>18.934281</v>
+        <v>18.934280999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1258.070000</v>
+        <v>1258.07</v>
       </c>
       <c r="BB5" s="1">
-        <v>-138.834000</v>
+        <v>-138.834</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>68174.366802</v>
+        <v>68174.366802000004</v>
       </c>
       <c r="BE5" s="1">
         <v>18.937324</v>
       </c>
       <c r="BF5" s="1">
-        <v>1298.690000</v>
+        <v>1298.69</v>
       </c>
       <c r="BG5" s="1">
-        <v>-220.495000</v>
+        <v>-220.495</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>68185.553074</v>
+        <v>68185.553073999996</v>
       </c>
       <c r="BJ5" s="1">
         <v>18.940431</v>
       </c>
       <c r="BK5" s="1">
-        <v>1369.060000</v>
+        <v>1369.06</v>
       </c>
       <c r="BL5" s="1">
-        <v>-356.220000</v>
+        <v>-356.22</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>68197.218979</v>
+        <v>68197.218978999997</v>
       </c>
       <c r="BO5" s="1">
-        <v>18.943672</v>
+        <v>18.943671999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1484.290000</v>
+        <v>1484.29</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-576.456000</v>
+        <v>-576.45600000000002</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>68208.472708</v>
+        <v>68208.472708000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>18.946798</v>
+        <v>18.946798000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1616.810000</v>
+        <v>1616.81</v>
       </c>
       <c r="BV5" s="1">
-        <v>-824.004000</v>
+        <v>-824.00400000000002</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>68219.144664</v>
+        <v>68219.144664000007</v>
       </c>
       <c r="BY5" s="1">
         <v>18.949762</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1770.400000</v>
+        <v>1770.4</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1092.680000</v>
+        <v>-1092.68</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>68230.941974</v>
+        <v>68230.941974000001</v>
       </c>
       <c r="CD5" s="1">
         <v>18.953039</v>
       </c>
       <c r="CE5" s="1">
-        <v>2187.350000</v>
+        <v>2187.35</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1741.180000</v>
+        <v>-1741.18</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>68057.999023</v>
+        <v>68057.999022999997</v>
       </c>
       <c r="B6" s="1">
-        <v>18.905000</v>
+        <v>18.905000000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1143.460000</v>
+        <v>1143.46</v>
       </c>
       <c r="D6" s="1">
-        <v>-261.372000</v>
+        <v>-261.37200000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>68068.029502</v>
+        <v>68068.029502000005</v>
       </c>
       <c r="G6" s="1">
-        <v>18.907786</v>
+        <v>18.907786000000002</v>
       </c>
       <c r="H6" s="1">
-        <v>1166.020000</v>
+        <v>1166.02</v>
       </c>
       <c r="I6" s="1">
-        <v>-219.423000</v>
+        <v>-219.423</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>68078.179633</v>
+        <v>68078.179633000007</v>
       </c>
       <c r="L6" s="1">
         <v>18.910605</v>
       </c>
       <c r="M6" s="1">
-        <v>1195.520000</v>
+        <v>1195.52</v>
       </c>
       <c r="N6" s="1">
-        <v>-153.442000</v>
+        <v>-153.44200000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>68089.015234</v>
+        <v>68089.015234000006</v>
       </c>
       <c r="Q6" s="1">
         <v>18.913615</v>
       </c>
       <c r="R6" s="1">
-        <v>1203.810000</v>
+        <v>1203.81</v>
       </c>
       <c r="S6" s="1">
-        <v>-131.042000</v>
+        <v>-131.042</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>68099.552739</v>
+        <v>68099.552739000006</v>
       </c>
       <c r="V6" s="1">
         <v>18.916542</v>
       </c>
       <c r="W6" s="1">
-        <v>1211.640000</v>
+        <v>1211.6400000000001</v>
       </c>
       <c r="X6" s="1">
-        <v>-109.611000</v>
+        <v>-109.611</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>68110.020807</v>
+        <v>68110.020806999994</v>
       </c>
       <c r="AA6" s="1">
-        <v>18.919450</v>
+        <v>18.919450000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1219.230000</v>
+        <v>1219.23</v>
       </c>
       <c r="AC6" s="1">
-        <v>-91.973800</v>
+        <v>-91.973799999999997</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>68120.555868</v>
+        <v>68120.555867999996</v>
       </c>
       <c r="AF6" s="1">
-        <v>18.922377</v>
+        <v>18.922377000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1224.300000</v>
+        <v>1224.3</v>
       </c>
       <c r="AH6" s="1">
-        <v>-87.237900</v>
+        <v>-87.237899999999996</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>68130.721834</v>
+        <v>68130.721833999996</v>
       </c>
       <c r="AK6" s="1">
-        <v>18.925201</v>
+        <v>18.925201000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>1231.430000</v>
+        <v>1231.43</v>
       </c>
       <c r="AM6" s="1">
-        <v>-90.337000</v>
+        <v>-90.337000000000003</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>68141.685405</v>
+        <v>68141.685404999997</v>
       </c>
       <c r="AP6" s="1">
-        <v>18.928246</v>
+        <v>18.928246000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1239.450000</v>
+        <v>1239.45</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.149000</v>
+        <v>-102.149</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>68152.703074</v>
+        <v>68152.703074000005</v>
       </c>
       <c r="AU6" s="1">
-        <v>18.931306</v>
+        <v>18.931305999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1249.520000</v>
+        <v>1249.52</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.367000</v>
+        <v>-121.367</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>68163.852644</v>
+        <v>68163.852643999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>18.934404</v>
+        <v>18.934404000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1258.100000</v>
+        <v>1258.0999999999999</v>
       </c>
       <c r="BB6" s="1">
-        <v>-138.841000</v>
+        <v>-138.84100000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>68174.757152</v>
+        <v>68174.757152000006</v>
       </c>
       <c r="BE6" s="1">
-        <v>18.937433</v>
+        <v>18.937432999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1298.690000</v>
+        <v>1298.69</v>
       </c>
       <c r="BG6" s="1">
-        <v>-220.516000</v>
+        <v>-220.51599999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>68185.930033</v>
+        <v>68185.930032999997</v>
       </c>
       <c r="BJ6" s="1">
-        <v>18.940536</v>
+        <v>18.940536000000002</v>
       </c>
       <c r="BK6" s="1">
-        <v>1368.960000</v>
+        <v>1368.96</v>
       </c>
       <c r="BL6" s="1">
-        <v>-356.239000</v>
+        <v>-356.23899999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>68197.639091</v>
+        <v>68197.639091000005</v>
       </c>
       <c r="BO6" s="1">
-        <v>18.943789</v>
+        <v>18.943788999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1484.330000</v>
+        <v>1484.33</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-576.440000</v>
+        <v>-576.44000000000005</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>68209.185681</v>
+        <v>68209.185681000003</v>
       </c>
       <c r="BT6" s="1">
-        <v>18.946996</v>
+        <v>18.946995999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1616.930000</v>
+        <v>1616.93</v>
       </c>
       <c r="BV6" s="1">
-        <v>-823.931000</v>
+        <v>-823.93100000000004</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>68219.593541</v>
+        <v>68219.593540999995</v>
       </c>
       <c r="BY6" s="1">
         <v>18.949887</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1770.120000</v>
+        <v>1770.12</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1092.490000</v>
+        <v>-1092.49</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>68231.482118</v>
       </c>
       <c r="CD6" s="1">
-        <v>18.953189</v>
+        <v>18.953188999999998</v>
       </c>
       <c r="CE6" s="1">
-        <v>2189.600000</v>
+        <v>2189.6</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1739.700000</v>
+        <v>-1739.7</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>68058.343132</v>
+        <v>68058.343131999995</v>
       </c>
       <c r="B7" s="1">
-        <v>18.905095</v>
+        <v>18.905094999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>1143.400000</v>
+        <v>1143.4000000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-261.418000</v>
+        <v>-261.41800000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>68068.372733</v>
+        <v>68068.372732999997</v>
       </c>
       <c r="G7" s="1">
         <v>18.907881</v>
       </c>
       <c r="H7" s="1">
-        <v>1166.490000</v>
+        <v>1166.49</v>
       </c>
       <c r="I7" s="1">
-        <v>-219.799000</v>
+        <v>-219.79900000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>68078.874032</v>
+        <v>68078.874032000007</v>
       </c>
       <c r="L7" s="1">
         <v>18.910798</v>
       </c>
       <c r="M7" s="1">
-        <v>1195.500000</v>
+        <v>1195.5</v>
       </c>
       <c r="N7" s="1">
-        <v>-153.675000</v>
+        <v>-153.67500000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>68089.366897</v>
       </c>
       <c r="Q7" s="1">
-        <v>18.913713</v>
+        <v>18.913713000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>1203.810000</v>
+        <v>1203.81</v>
       </c>
       <c r="S7" s="1">
-        <v>-131.002000</v>
+        <v>-131.00200000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>68099.897956</v>
+        <v>68099.897956000001</v>
       </c>
       <c r="V7" s="1">
-        <v>18.916638</v>
+        <v>18.916637999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>1211.490000</v>
+        <v>1211.49</v>
       </c>
       <c r="X7" s="1">
-        <v>-109.577000</v>
+        <v>-109.577</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>68110.368005</v>
+        <v>68110.368004999997</v>
       </c>
       <c r="AA7" s="1">
-        <v>18.919547</v>
+        <v>18.919547000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1219.410000</v>
+        <v>1219.4100000000001</v>
       </c>
       <c r="AC7" s="1">
-        <v>-92.051200</v>
+        <v>-92.051199999999994</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>68120.967051</v>
       </c>
       <c r="AF7" s="1">
-        <v>18.922491</v>
+        <v>18.922491000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>1224.250000</v>
+        <v>1224.25</v>
       </c>
       <c r="AH7" s="1">
-        <v>-87.215900</v>
+        <v>-87.215900000000005</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>68131.374601</v>
+        <v>68131.374601000003</v>
       </c>
       <c r="AK7" s="1">
-        <v>18.925382</v>
+        <v>18.925381999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1231.410000</v>
+        <v>1231.4100000000001</v>
       </c>
       <c r="AM7" s="1">
-        <v>-90.350600</v>
+        <v>-90.3506</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>68142.093115</v>
+        <v>68142.093114999996</v>
       </c>
       <c r="AP7" s="1">
         <v>18.928359</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1239.440000</v>
+        <v>1239.44</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.136000</v>
+        <v>-102.136</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>68153.148983</v>
+        <v>68153.148983000006</v>
       </c>
       <c r="AU7" s="1">
-        <v>18.931430</v>
+        <v>18.931429999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>1249.510000</v>
+        <v>1249.51</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.362000</v>
+        <v>-121.36199999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>68164.214687</v>
@@ -1916,330 +2332,330 @@
         <v>18.934504</v>
       </c>
       <c r="BA7" s="1">
-        <v>1258.080000</v>
+        <v>1258.08</v>
       </c>
       <c r="BB7" s="1">
-        <v>-138.837000</v>
+        <v>-138.83699999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>68175.138715</v>
+        <v>68175.138714999994</v>
       </c>
       <c r="BE7" s="1">
-        <v>18.937539</v>
+        <v>18.937539000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1298.680000</v>
+        <v>1298.68</v>
       </c>
       <c r="BG7" s="1">
-        <v>-220.512000</v>
+        <v>-220.512</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>68186.311953</v>
+        <v>68186.311952999997</v>
       </c>
       <c r="BJ7" s="1">
         <v>18.940642</v>
       </c>
       <c r="BK7" s="1">
-        <v>1368.920000</v>
+        <v>1368.92</v>
       </c>
       <c r="BL7" s="1">
-        <v>-356.141000</v>
+        <v>-356.14100000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>68198.060193</v>
+        <v>68198.060192999998</v>
       </c>
       <c r="BO7" s="1">
-        <v>18.943906</v>
+        <v>18.943905999999998</v>
       </c>
       <c r="BP7" s="1">
-        <v>1484.340000</v>
+        <v>1484.34</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-576.382000</v>
+        <v>-576.38199999999995</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>68209.304002</v>
+        <v>68209.304002000004</v>
       </c>
       <c r="BT7" s="1">
-        <v>18.947029</v>
+        <v>18.947029000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1616.950000</v>
+        <v>1616.95</v>
       </c>
       <c r="BV7" s="1">
-        <v>-823.878000</v>
+        <v>-823.87800000000004</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>68220.052341</v>
+        <v>68220.052341000002</v>
       </c>
       <c r="BY7" s="1">
         <v>18.950015</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1770.350000</v>
+        <v>1770.35</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1092.750000</v>
+        <v>-1092.75</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>68232.022788</v>
+        <v>68232.022788000002</v>
       </c>
       <c r="CD7" s="1">
-        <v>18.953340</v>
+        <v>18.953340000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>2187.520000</v>
+        <v>2187.52</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1739.050000</v>
+        <v>-1739.05</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>68059.023679</v>
+        <v>68059.023679000005</v>
       </c>
       <c r="B8" s="1">
-        <v>18.905284</v>
+        <v>18.905284000000002</v>
       </c>
       <c r="C8" s="1">
-        <v>1143.610000</v>
+        <v>1143.6099999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-261.176000</v>
+        <v>-261.17599999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>68069.133100</v>
+        <v>68069.133100000006</v>
       </c>
       <c r="G8" s="1">
-        <v>18.908093</v>
+        <v>18.908093000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>1165.780000</v>
+        <v>1165.78</v>
       </c>
       <c r="I8" s="1">
-        <v>-219.294000</v>
+        <v>-219.29400000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>68079.219278</v>
+        <v>68079.219278000004</v>
       </c>
       <c r="L8" s="1">
-        <v>18.910894</v>
+        <v>18.910893999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1195.390000</v>
+        <v>1195.3900000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-153.353000</v>
+        <v>-153.35300000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>68089.717570</v>
+        <v>68089.717569999993</v>
       </c>
       <c r="Q8" s="1">
-        <v>18.913810</v>
+        <v>18.913810000000002</v>
       </c>
       <c r="R8" s="1">
-        <v>1203.730000</v>
+        <v>1203.73</v>
       </c>
       <c r="S8" s="1">
-        <v>-130.964000</v>
+        <v>-130.964</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>68100.242179</v>
+        <v>68100.242178999993</v>
       </c>
       <c r="V8" s="1">
-        <v>18.916734</v>
+        <v>18.916734000000002</v>
       </c>
       <c r="W8" s="1">
-        <v>1211.410000</v>
+        <v>1211.4100000000001</v>
       </c>
       <c r="X8" s="1">
-        <v>-109.646000</v>
+        <v>-109.646</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>68111.021764</v>
+        <v>68111.021764000005</v>
       </c>
       <c r="AA8" s="1">
-        <v>18.919728</v>
+        <v>18.919727999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1219.390000</v>
+        <v>1219.3900000000001</v>
       </c>
       <c r="AC8" s="1">
-        <v>-92.086700</v>
+        <v>-92.086699999999993</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>68121.408487</v>
+        <v>68121.408486999993</v>
       </c>
       <c r="AF8" s="1">
-        <v>18.922613</v>
+        <v>18.922612999999998</v>
       </c>
       <c r="AG8" s="1">
-        <v>1224.130000</v>
+        <v>1224.1300000000001</v>
       </c>
       <c r="AH8" s="1">
-        <v>-87.398600</v>
+        <v>-87.398600000000002</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>68131.767402</v>
+        <v>68131.767401999998</v>
       </c>
       <c r="AK8" s="1">
-        <v>18.925491</v>
+        <v>18.925491000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>1231.440000</v>
+        <v>1231.44</v>
       </c>
       <c r="AM8" s="1">
-        <v>-90.350900</v>
+        <v>-90.350899999999996</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>68142.482972</v>
+        <v>68142.482971999998</v>
       </c>
       <c r="AP8" s="1">
-        <v>18.928467</v>
+        <v>18.928467000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1239.440000</v>
+        <v>1239.44</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.120000</v>
+        <v>-102.12</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>68153.515019</v>
+        <v>68153.515018999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>18.931532</v>
+        <v>18.931532000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1249.500000</v>
+        <v>1249.5</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.380000</v>
+        <v>-121.38</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>68164.571805</v>
       </c>
       <c r="AZ8" s="1">
-        <v>18.934603</v>
+        <v>18.934602999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1258.090000</v>
+        <v>1258.0899999999999</v>
       </c>
       <c r="BB8" s="1">
-        <v>-138.830000</v>
+        <v>-138.83000000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>68175.552764</v>
+        <v>68175.552763999993</v>
       </c>
       <c r="BE8" s="1">
-        <v>18.937654</v>
+        <v>18.937653999999998</v>
       </c>
       <c r="BF8" s="1">
-        <v>1298.670000</v>
+        <v>1298.67</v>
       </c>
       <c r="BG8" s="1">
-        <v>-220.520000</v>
+        <v>-220.52</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>68186.727104</v>
+        <v>68186.727104000005</v>
       </c>
       <c r="BJ8" s="1">
-        <v>18.940758</v>
+        <v>18.940757999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1368.970000</v>
+        <v>1368.97</v>
       </c>
       <c r="BL8" s="1">
-        <v>-356.148000</v>
+        <v>-356.14800000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>68198.460962</v>
+        <v>68198.460961999997</v>
       </c>
       <c r="BO8" s="1">
-        <v>18.944017</v>
+        <v>18.944016999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1484.310000</v>
+        <v>1484.31</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-576.429000</v>
+        <v>-576.42899999999997</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>68209.742466</v>
+        <v>68209.742465999996</v>
       </c>
       <c r="BT8" s="1">
-        <v>18.947151</v>
+        <v>18.947151000000002</v>
       </c>
       <c r="BU8" s="1">
-        <v>1616.950000</v>
+        <v>1616.95</v>
       </c>
       <c r="BV8" s="1">
-        <v>-823.900000</v>
+        <v>-823.9</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>68220.501718</v>
@@ -2248,377 +2664,377 @@
         <v>18.950139</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1770.300000</v>
+        <v>1770.3</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1092.590000</v>
+        <v>-1092.5899999999999</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>68232.560915</v>
+        <v>68232.560914999995</v>
       </c>
       <c r="CD8" s="1">
-        <v>18.953489</v>
+        <v>18.953489000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>2188.830000</v>
+        <v>2188.83</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1741.210000</v>
+        <v>-1741.21</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>68059.365545</v>
+        <v>68059.365544999993</v>
       </c>
       <c r="B9" s="1">
         <v>18.905379</v>
       </c>
       <c r="C9" s="1">
-        <v>1143.370000</v>
+        <v>1143.3699999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-261.340000</v>
+        <v>-261.33999999999997</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>68069.451036</v>
+        <v>68069.451035999999</v>
       </c>
       <c r="G9" s="1">
-        <v>18.908181</v>
+        <v>18.908180999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1165.900000</v>
+        <v>1165.9000000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-219.854000</v>
+        <v>-219.85400000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>68079.565454</v>
+        <v>68079.565453999996</v>
       </c>
       <c r="L9" s="1">
-        <v>18.910990</v>
+        <v>18.910990000000002</v>
       </c>
       <c r="M9" s="1">
-        <v>1195.480000</v>
+        <v>1195.48</v>
       </c>
       <c r="N9" s="1">
-        <v>-153.115000</v>
+        <v>-153.11500000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>68090.372289</v>
+        <v>68090.372289000006</v>
       </c>
       <c r="Q9" s="1">
         <v>18.913992</v>
       </c>
       <c r="R9" s="1">
-        <v>1203.810000</v>
+        <v>1203.81</v>
       </c>
       <c r="S9" s="1">
-        <v>-130.901000</v>
+        <v>-130.90100000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>68100.888004</v>
+        <v>68100.888003999993</v>
       </c>
       <c r="V9" s="1">
-        <v>18.916913</v>
+        <v>18.916913000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>1211.460000</v>
+        <v>1211.46</v>
       </c>
       <c r="X9" s="1">
-        <v>-109.679000</v>
+        <v>-109.679</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>68111.415588</v>
+        <v>68111.415588000003</v>
       </c>
       <c r="AA9" s="1">
-        <v>18.919838</v>
+        <v>18.919837999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>1219.410000</v>
+        <v>1219.4100000000001</v>
       </c>
       <c r="AC9" s="1">
-        <v>-92.063400</v>
+        <v>-92.063400000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>68121.601398</v>
+        <v>68121.601397999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>18.922667</v>
+        <v>18.922667000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>1224.270000</v>
+        <v>1224.27</v>
       </c>
       <c r="AH9" s="1">
-        <v>-87.404400</v>
+        <v>-87.404399999999995</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>68132.114602</v>
+        <v>68132.114602000001</v>
       </c>
       <c r="AK9" s="1">
         <v>18.925587</v>
       </c>
       <c r="AL9" s="1">
-        <v>1231.400000</v>
+        <v>1231.4000000000001</v>
       </c>
       <c r="AM9" s="1">
-        <v>-90.350900</v>
+        <v>-90.350899999999996</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>68142.842571</v>
+        <v>68142.842571000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>18.928567</v>
+        <v>18.928567000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1239.440000</v>
+        <v>1239.44</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.122000</v>
+        <v>-102.122</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>68153.877565</v>
+        <v>68153.877565000003</v>
       </c>
       <c r="AU9" s="1">
-        <v>18.931633</v>
+        <v>18.931633000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1249.530000</v>
+        <v>1249.53</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.360000</v>
+        <v>-121.36</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>68164.981501</v>
+        <v>68164.981501000002</v>
       </c>
       <c r="AZ9" s="1">
-        <v>18.934717</v>
+        <v>18.934716999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1258.080000</v>
+        <v>1258.08</v>
       </c>
       <c r="BB9" s="1">
-        <v>-138.818000</v>
+        <v>-138.81800000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>68175.860254</v>
+        <v>68175.860253999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>18.937739</v>
+        <v>18.937739000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1298.670000</v>
+        <v>1298.67</v>
       </c>
       <c r="BG9" s="1">
-        <v>-220.526000</v>
+        <v>-220.52600000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>68187.085712</v>
       </c>
       <c r="BJ9" s="1">
-        <v>18.940857</v>
+        <v>18.940857000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1369.040000</v>
+        <v>1369.04</v>
       </c>
       <c r="BL9" s="1">
-        <v>-356.133000</v>
+        <v>-356.13299999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>68198.854821</v>
+        <v>68198.854821000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>18.944126</v>
+        <v>18.944126000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1484.300000</v>
+        <v>1484.3</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-576.405000</v>
+        <v>-576.40499999999997</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>68210.156130</v>
+        <v>68210.156130000003</v>
       </c>
       <c r="BT9" s="1">
-        <v>18.947266</v>
+        <v>18.947265999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1616.930000</v>
+        <v>1616.93</v>
       </c>
       <c r="BV9" s="1">
-        <v>-823.849000</v>
+        <v>-823.84900000000005</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>68220.950575</v>
+        <v>68220.950574999995</v>
       </c>
       <c r="BY9" s="1">
-        <v>18.950264</v>
+        <v>18.950264000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1770.380000</v>
+        <v>1770.38</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1092.710000</v>
+        <v>-1092.71</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>68233.102052</v>
+        <v>68233.102052000002</v>
       </c>
       <c r="CD9" s="1">
-        <v>18.953639</v>
+        <v>18.953638999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>2189.060000</v>
+        <v>2189.06</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1738.580000</v>
+        <v>-1738.58</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>68059.708121</v>
+        <v>68059.708121000003</v>
       </c>
       <c r="B10" s="1">
-        <v>18.905474</v>
+        <v>18.905474000000002</v>
       </c>
       <c r="C10" s="1">
-        <v>1143.450000</v>
+        <v>1143.45</v>
       </c>
       <c r="D10" s="1">
-        <v>-261.150000</v>
+        <v>-261.14999999999998</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>68070.099802</v>
+        <v>68070.099801999997</v>
       </c>
       <c r="G10" s="1">
-        <v>18.908361</v>
+        <v>18.908360999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1165.780000</v>
+        <v>1165.78</v>
       </c>
       <c r="I10" s="1">
-        <v>-219.947000</v>
+        <v>-219.947</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>68080.226648</v>
+        <v>68080.226647999996</v>
       </c>
       <c r="L10" s="1">
-        <v>18.911174</v>
+        <v>18.911173999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1195.530000</v>
+        <v>1195.53</v>
       </c>
       <c r="N10" s="1">
-        <v>-153.328000</v>
+        <v>-153.328</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>68090.763669</v>
+        <v>68090.763669000007</v>
       </c>
       <c r="Q10" s="1">
-        <v>18.914101</v>
+        <v>18.914100999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>1203.870000</v>
+        <v>1203.8699999999999</v>
       </c>
       <c r="S10" s="1">
-        <v>-130.934000</v>
+        <v>-130.934</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>68101.269889</v>
+        <v>68101.269889000003</v>
       </c>
       <c r="V10" s="1">
         <v>18.917019</v>
       </c>
       <c r="W10" s="1">
-        <v>1211.600000</v>
+        <v>1211.5999999999999</v>
       </c>
       <c r="X10" s="1">
-        <v>-109.746000</v>
+        <v>-109.746</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>68111.764740</v>
+        <v>68111.764739999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>18.919935</v>
+        <v>18.919934999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>1219.480000</v>
+        <v>1219.48</v>
       </c>
       <c r="AC10" s="1">
-        <v>-91.984900</v>
+        <v>-91.984899999999996</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>68121.946119</v>
@@ -2627,2054 +3043,2054 @@
         <v>18.922763</v>
       </c>
       <c r="AG10" s="1">
-        <v>1224.160000</v>
+        <v>1224.1600000000001</v>
       </c>
       <c r="AH10" s="1">
-        <v>-87.273500</v>
+        <v>-87.273499999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>68132.463813</v>
+        <v>68132.463812999995</v>
       </c>
       <c r="AK10" s="1">
         <v>18.925684</v>
       </c>
       <c r="AL10" s="1">
-        <v>1231.430000</v>
+        <v>1231.43</v>
       </c>
       <c r="AM10" s="1">
-        <v>-90.365900</v>
+        <v>-90.365899999999996</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>68143.262226</v>
+        <v>68143.262226000006</v>
       </c>
       <c r="AP10" s="1">
-        <v>18.928684</v>
+        <v>18.928684000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1239.420000</v>
+        <v>1239.42</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.137000</v>
+        <v>-102.137</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>68154.314043</v>
+        <v>68154.314043000006</v>
       </c>
       <c r="AU10" s="1">
-        <v>18.931754</v>
+        <v>18.931754000000002</v>
       </c>
       <c r="AV10" s="1">
-        <v>1249.530000</v>
+        <v>1249.53</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.376000</v>
+        <v>-121.376</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>68165.292494</v>
+        <v>68165.292493999994</v>
       </c>
       <c r="AZ10" s="1">
-        <v>18.934803</v>
+        <v>18.934802999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1258.110000</v>
+        <v>1258.1099999999999</v>
       </c>
       <c r="BB10" s="1">
-        <v>-138.824000</v>
+        <v>-138.82400000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>68176.221342</v>
+        <v>68176.221342000004</v>
       </c>
       <c r="BE10" s="1">
         <v>18.937839</v>
       </c>
       <c r="BF10" s="1">
-        <v>1298.670000</v>
+        <v>1298.67</v>
       </c>
       <c r="BG10" s="1">
-        <v>-220.512000</v>
+        <v>-220.512</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>68187.462176</v>
+        <v>68187.462176000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>18.940962</v>
+        <v>18.940961999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1369.080000</v>
+        <v>1369.08</v>
       </c>
       <c r="BL10" s="1">
-        <v>-356.189000</v>
+        <v>-356.18900000000002</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>68199.272913</v>
+        <v>68199.272912999993</v>
       </c>
       <c r="BO10" s="1">
-        <v>18.944242</v>
+        <v>18.944241999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1484.280000</v>
+        <v>1484.28</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-576.459000</v>
+        <v>-576.45899999999995</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>68210.579712</v>
+        <v>68210.579712000006</v>
       </c>
       <c r="BT10" s="1">
-        <v>18.947383</v>
+        <v>18.947382999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1617.050000</v>
+        <v>1617.05</v>
       </c>
       <c r="BV10" s="1">
-        <v>-823.831000</v>
+        <v>-823.83100000000002</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>68221.371209</v>
+        <v>68221.371209000004</v>
       </c>
       <c r="BY10" s="1">
         <v>18.950381</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1770.320000</v>
+        <v>1770.32</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1092.570000</v>
+        <v>-1092.57</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>68233.640243</v>
+        <v>68233.640243000002</v>
       </c>
       <c r="CD10" s="1">
         <v>18.953789</v>
       </c>
       <c r="CE10" s="1">
-        <v>2187.360000</v>
+        <v>2187.36</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1740.760000</v>
+        <v>-1740.76</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>68060.349943</v>
+        <v>68060.349942999994</v>
       </c>
       <c r="B11" s="1">
-        <v>18.905653</v>
+        <v>18.905653000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>1143.620000</v>
+        <v>1143.6199999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-261.258000</v>
+        <v>-261.25799999999998</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>68070.472300</v>
+        <v>68070.472299999994</v>
       </c>
       <c r="G11" s="1">
         <v>18.908465</v>
       </c>
       <c r="H11" s="1">
-        <v>1166.520000</v>
+        <v>1166.52</v>
       </c>
       <c r="I11" s="1">
-        <v>-219.559000</v>
+        <v>-219.559</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>68080.599116</v>
+        <v>68080.599115999998</v>
       </c>
       <c r="L11" s="1">
-        <v>18.911278</v>
+        <v>18.911277999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>1195.580000</v>
+        <v>1195.58</v>
       </c>
       <c r="N11" s="1">
-        <v>-153.347000</v>
+        <v>-153.34700000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>68091.111864</v>
+        <v>68091.111864000006</v>
       </c>
       <c r="Q11" s="1">
-        <v>18.914198</v>
+        <v>18.914197999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>1203.800000</v>
+        <v>1203.8</v>
       </c>
       <c r="S11" s="1">
-        <v>-131.001000</v>
+        <v>-131.001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>68101.613648</v>
+        <v>68101.613647999999</v>
       </c>
       <c r="V11" s="1">
-        <v>18.917115</v>
+        <v>18.917114999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1211.590000</v>
+        <v>1211.5899999999999</v>
       </c>
       <c r="X11" s="1">
-        <v>-109.729000</v>
+        <v>-109.729</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>68112.113955</v>
+        <v>68112.113954999993</v>
       </c>
       <c r="AA11" s="1">
-        <v>18.920032</v>
+        <v>18.920031999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1219.370000</v>
+        <v>1219.3699999999999</v>
       </c>
       <c r="AC11" s="1">
-        <v>-92.078900</v>
+        <v>-92.078900000000004</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>68122.351845</v>
+        <v>68122.351844999997</v>
       </c>
       <c r="AF11" s="1">
-        <v>18.922876</v>
+        <v>18.922875999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>1224.020000</v>
+        <v>1224.02</v>
       </c>
       <c r="AH11" s="1">
-        <v>-87.282800</v>
+        <v>-87.282799999999995</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>68132.896824</v>
+        <v>68132.896823999996</v>
       </c>
       <c r="AK11" s="1">
         <v>18.925805</v>
       </c>
       <c r="AL11" s="1">
-        <v>1231.410000</v>
+        <v>1231.4100000000001</v>
       </c>
       <c r="AM11" s="1">
-        <v>-90.345800</v>
+        <v>-90.345799999999997</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>68143.564782</v>
+        <v>68143.564782000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>18.928768</v>
+        <v>18.928768000000002</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1239.440000</v>
+        <v>1239.44</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.114000</v>
+        <v>-102.114</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>68154.607068</v>
+        <v>68154.607067999998</v>
       </c>
       <c r="AU11" s="1">
         <v>18.931835</v>
       </c>
       <c r="AV11" s="1">
-        <v>1249.510000</v>
+        <v>1249.51</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.390000</v>
+        <v>-121.39</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>68165.649131</v>
+        <v>68165.649130999998</v>
       </c>
       <c r="AZ11" s="1">
-        <v>18.934903</v>
+        <v>18.934902999999998</v>
       </c>
       <c r="BA11" s="1">
-        <v>1258.060000</v>
+        <v>1258.06</v>
       </c>
       <c r="BB11" s="1">
-        <v>-138.838000</v>
+        <v>-138.83799999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>68176.582926</v>
+        <v>68176.582926000003</v>
       </c>
       <c r="BE11" s="1">
-        <v>18.937940</v>
+        <v>18.937940000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1298.710000</v>
+        <v>1298.71</v>
       </c>
       <c r="BG11" s="1">
-        <v>-220.510000</v>
+        <v>-220.51</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>68187.847072</v>
+        <v>68187.847072000004</v>
       </c>
       <c r="BJ11" s="1">
-        <v>18.941069</v>
+        <v>18.941068999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1368.910000</v>
+        <v>1368.91</v>
       </c>
       <c r="BL11" s="1">
-        <v>-356.169000</v>
+        <v>-356.16899999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>68199.688063</v>
+        <v>68199.688062999994</v>
       </c>
       <c r="BO11" s="1">
-        <v>18.944358</v>
+        <v>18.944358000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1484.280000</v>
+        <v>1484.28</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-576.432000</v>
+        <v>-576.43200000000002</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>68210.987920</v>
+        <v>68210.98792</v>
       </c>
       <c r="BT11" s="1">
-        <v>18.947497</v>
+        <v>18.947496999999998</v>
       </c>
       <c r="BU11" s="1">
-        <v>1617.070000</v>
+        <v>1617.07</v>
       </c>
       <c r="BV11" s="1">
-        <v>-823.798000</v>
+        <v>-823.798</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>68221.796740</v>
+        <v>68221.796740000005</v>
       </c>
       <c r="BY11" s="1">
-        <v>18.950499</v>
+        <v>18.950499000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1770.390000</v>
+        <v>1770.39</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1092.510000</v>
+        <v>-1092.51</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>68234.178370</v>
+        <v>68234.178369999994</v>
       </c>
       <c r="CD11" s="1">
-        <v>18.953938</v>
+        <v>18.953938000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>2189.420000</v>
+        <v>2189.42</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1740.180000</v>
+        <v>-1740.18</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>68060.733352</v>
+        <v>68060.733351999996</v>
       </c>
       <c r="B12" s="1">
         <v>18.905759</v>
       </c>
       <c r="C12" s="1">
-        <v>1143.390000</v>
+        <v>1143.3900000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-261.291000</v>
+        <v>-261.291</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>68070.816553</v>
+        <v>68070.816552999997</v>
       </c>
       <c r="G12" s="1">
-        <v>18.908560</v>
+        <v>18.908560000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1166.610000</v>
+        <v>1166.6099999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-219.741000</v>
+        <v>-219.74100000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>68080.947166</v>
+        <v>68080.947165999998</v>
       </c>
       <c r="L12" s="1">
-        <v>18.911374</v>
+        <v>18.911373999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>1195.520000</v>
+        <v>1195.52</v>
       </c>
       <c r="N12" s="1">
-        <v>-153.422000</v>
+        <v>-153.422</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>68091.459054</v>
+        <v>68091.459054000006</v>
       </c>
       <c r="Q12" s="1">
-        <v>18.914294</v>
+        <v>18.914294000000002</v>
       </c>
       <c r="R12" s="1">
-        <v>1203.740000</v>
+        <v>1203.74</v>
       </c>
       <c r="S12" s="1">
-        <v>-130.989000</v>
+        <v>-130.989</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>68101.957376</v>
+        <v>68101.957376000006</v>
       </c>
       <c r="V12" s="1">
-        <v>18.917210</v>
+        <v>18.917210000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1211.720000</v>
+        <v>1211.72</v>
       </c>
       <c r="X12" s="1">
-        <v>-109.645000</v>
+        <v>-109.645</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>68112.538038</v>
+        <v>68112.538037999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>18.920149</v>
+        <v>18.920148999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>1219.440000</v>
+        <v>1219.44</v>
       </c>
       <c r="AC12" s="1">
-        <v>-92.046900</v>
+        <v>-92.046899999999994</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>68122.665814</v>
+        <v>68122.665814000007</v>
       </c>
       <c r="AF12" s="1">
-        <v>18.922963</v>
+        <v>18.922962999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>1224.070000</v>
+        <v>1224.07</v>
       </c>
       <c r="AH12" s="1">
-        <v>-87.232600</v>
+        <v>-87.232600000000005</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>68133.177527</v>
+        <v>68133.177527000007</v>
       </c>
       <c r="AK12" s="1">
-        <v>18.925883</v>
+        <v>18.925882999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1231.370000</v>
+        <v>1231.3699999999999</v>
       </c>
       <c r="AM12" s="1">
-        <v>-90.360400</v>
+        <v>-90.360399999999998</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>68143.922909</v>
+        <v>68143.922909000001</v>
       </c>
       <c r="AP12" s="1">
         <v>18.928867</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1239.420000</v>
+        <v>1239.42</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.140000</v>
+        <v>-102.14</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>68154.969791</v>
+        <v>68154.969790999996</v>
       </c>
       <c r="AU12" s="1">
         <v>18.931936</v>
       </c>
       <c r="AV12" s="1">
-        <v>1249.530000</v>
+        <v>1249.53</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.377000</v>
+        <v>-121.377</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>68166.008253</v>
+        <v>68166.008253000007</v>
       </c>
       <c r="AZ12" s="1">
-        <v>18.935002</v>
+        <v>18.935002000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1258.090000</v>
+        <v>1258.0899999999999</v>
       </c>
       <c r="BB12" s="1">
-        <v>-138.812000</v>
+        <v>-138.81200000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>68177.315022</v>
+        <v>68177.315021999995</v>
       </c>
       <c r="BE12" s="1">
         <v>18.938143</v>
       </c>
       <c r="BF12" s="1">
-        <v>1298.670000</v>
+        <v>1298.67</v>
       </c>
       <c r="BG12" s="1">
-        <v>-220.516000</v>
+        <v>-220.51599999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>68188.610909</v>
+        <v>68188.610908999995</v>
       </c>
       <c r="BJ12" s="1">
         <v>18.941281</v>
       </c>
       <c r="BK12" s="1">
-        <v>1368.980000</v>
+        <v>1368.98</v>
       </c>
       <c r="BL12" s="1">
-        <v>-356.138000</v>
+        <v>-356.13799999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>68200.095280</v>
+        <v>68200.095279999994</v>
       </c>
       <c r="BO12" s="1">
         <v>18.944471</v>
       </c>
       <c r="BP12" s="1">
-        <v>1484.340000</v>
+        <v>1484.34</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-576.439000</v>
+        <v>-576.43899999999996</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>68211.399137</v>
       </c>
       <c r="BT12" s="1">
-        <v>18.947611</v>
+        <v>18.947610999999998</v>
       </c>
       <c r="BU12" s="1">
-        <v>1617.090000</v>
+        <v>1617.09</v>
       </c>
       <c r="BV12" s="1">
-        <v>-823.778000</v>
+        <v>-823.77800000000002</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>68222.240161</v>
+        <v>68222.240160999994</v>
       </c>
       <c r="BY12" s="1">
-        <v>18.950622</v>
+        <v>18.950621999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1770.380000</v>
+        <v>1770.38</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1092.460000</v>
+        <v>-1092.46</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>68235.031488</v>
+        <v>68235.031487999993</v>
       </c>
       <c r="CD12" s="1">
-        <v>18.954175</v>
+        <v>18.954174999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>2187.370000</v>
+        <v>2187.37</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1740.800000</v>
+        <v>-1740.8</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>68061.077576</v>
+        <v>68061.077575999996</v>
       </c>
       <c r="B13" s="1">
-        <v>18.905855</v>
+        <v>18.905854999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1143.490000</v>
+        <v>1143.49</v>
       </c>
       <c r="D13" s="1">
-        <v>-261.264000</v>
+        <v>-261.26400000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>68071.158265</v>
+        <v>68071.158265000005</v>
       </c>
       <c r="G13" s="1">
         <v>18.908655</v>
       </c>
       <c r="H13" s="1">
-        <v>1166.140000</v>
+        <v>1166.1400000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-219.768000</v>
+        <v>-219.768</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>68081.292523</v>
+        <v>68081.292522999996</v>
       </c>
       <c r="L13" s="1">
-        <v>18.911470</v>
+        <v>18.911470000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1195.460000</v>
+        <v>1195.46</v>
       </c>
       <c r="N13" s="1">
-        <v>-153.601000</v>
+        <v>-153.601</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>68091.878648</v>
+        <v>68091.878647999998</v>
       </c>
       <c r="Q13" s="1">
-        <v>18.914411</v>
+        <v>18.914411000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1203.820000</v>
+        <v>1203.82</v>
       </c>
       <c r="S13" s="1">
-        <v>-131.003000</v>
+        <v>-131.00299999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>68102.393328</v>
+        <v>68102.393328000006</v>
       </c>
       <c r="V13" s="1">
-        <v>18.917331</v>
+        <v>18.917331000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>1211.630000</v>
+        <v>1211.6300000000001</v>
       </c>
       <c r="X13" s="1">
-        <v>-109.747000</v>
+        <v>-109.747</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>68112.810306</v>
+        <v>68112.810305999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>18.920225</v>
+        <v>18.920224999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>1219.410000</v>
+        <v>1219.4100000000001</v>
       </c>
       <c r="AC13" s="1">
-        <v>-92.110000</v>
+        <v>-92.11</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>68123.009062</v>
+        <v>68123.009061999997</v>
       </c>
       <c r="AF13" s="1">
-        <v>18.923058</v>
+        <v>18.923058000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1224.300000</v>
+        <v>1224.3</v>
       </c>
       <c r="AH13" s="1">
-        <v>-87.125300</v>
+        <v>-87.125299999999996</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>68133.522774</v>
+        <v>68133.522773999997</v>
       </c>
       <c r="AK13" s="1">
-        <v>18.925979</v>
+        <v>18.925979000000002</v>
       </c>
       <c r="AL13" s="1">
-        <v>1231.430000</v>
+        <v>1231.43</v>
       </c>
       <c r="AM13" s="1">
-        <v>-90.367700</v>
+        <v>-90.367699999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>68144.281960</v>
+        <v>68144.281959999993</v>
       </c>
       <c r="AP13" s="1">
         <v>18.928967</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1239.420000</v>
+        <v>1239.42</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.143000</v>
+        <v>-102.143</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>68155.335306</v>
+        <v>68155.335305999994</v>
       </c>
       <c r="AU13" s="1">
-        <v>18.932038</v>
+        <v>18.932037999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1249.540000</v>
+        <v>1249.54</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.380000</v>
+        <v>-121.38</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>68166.725436</v>
+        <v>68166.725435999993</v>
       </c>
       <c r="AZ13" s="1">
         <v>18.935202</v>
       </c>
       <c r="BA13" s="1">
-        <v>1258.110000</v>
+        <v>1258.1099999999999</v>
       </c>
       <c r="BB13" s="1">
-        <v>-138.831000</v>
+        <v>-138.83099999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>68177.691484</v>
+        <v>68177.691483999995</v>
       </c>
       <c r="BE13" s="1">
-        <v>18.938248</v>
+        <v>18.938248000000002</v>
       </c>
       <c r="BF13" s="1">
-        <v>1298.690000</v>
+        <v>1298.69</v>
       </c>
       <c r="BG13" s="1">
-        <v>-220.554000</v>
+        <v>-220.554</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>68188.986381</v>
+        <v>68188.986380999995</v>
       </c>
       <c r="BJ13" s="1">
         <v>18.941385</v>
       </c>
       <c r="BK13" s="1">
-        <v>1369.110000</v>
+        <v>1369.11</v>
       </c>
       <c r="BL13" s="1">
-        <v>-356.115000</v>
+        <v>-356.11500000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>68200.491121</v>
+        <v>68200.491120999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>18.944581</v>
+        <v>18.944580999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1484.350000</v>
+        <v>1484.35</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-576.430000</v>
+        <v>-576.42999999999995</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>68212.124769</v>
+        <v>68212.124769000002</v>
       </c>
       <c r="BT13" s="1">
-        <v>18.947812</v>
+        <v>18.947811999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1617.180000</v>
+        <v>1617.18</v>
       </c>
       <c r="BV13" s="1">
-        <v>-823.913000</v>
+        <v>-823.91300000000001</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>68222.986641</v>
+        <v>68222.986640999996</v>
       </c>
       <c r="BY13" s="1">
-        <v>18.950830</v>
+        <v>18.95083</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1770.200000</v>
+        <v>1770.2</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1092.560000</v>
+        <v>-1092.56</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>68235.262129</v>
+        <v>68235.262128999995</v>
       </c>
       <c r="CD13" s="1">
-        <v>18.954239</v>
+        <v>18.954239000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>2187.710000</v>
+        <v>2187.71</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1740.570000</v>
+        <v>-1740.57</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>68061.418864</v>
+        <v>68061.418864000007</v>
       </c>
       <c r="B14" s="1">
-        <v>18.905950</v>
+        <v>18.905950000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1143.790000</v>
+        <v>1143.79</v>
       </c>
       <c r="D14" s="1">
-        <v>-261.400000</v>
+        <v>-261.39999999999998</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>68071.581180</v>
+        <v>68071.581179999994</v>
       </c>
       <c r="G14" s="1">
         <v>18.908773</v>
       </c>
       <c r="H14" s="1">
-        <v>1165.960000</v>
+        <v>1165.96</v>
       </c>
       <c r="I14" s="1">
-        <v>-219.502000</v>
+        <v>-219.50200000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>68081.711179</v>
+        <v>68081.711179000005</v>
       </c>
       <c r="L14" s="1">
         <v>18.911586</v>
       </c>
       <c r="M14" s="1">
-        <v>1195.630000</v>
+        <v>1195.6300000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-153.483000</v>
+        <v>-153.483</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>68092.157885</v>
+        <v>68092.157884999993</v>
       </c>
       <c r="Q14" s="1">
-        <v>18.914488</v>
+        <v>18.914487999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1203.800000</v>
+        <v>1203.8</v>
       </c>
       <c r="S14" s="1">
-        <v>-130.939000</v>
+        <v>-130.93899999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>68102.670591</v>
+        <v>68102.670591000002</v>
       </c>
       <c r="V14" s="1">
-        <v>18.917408</v>
+        <v>18.917408000000002</v>
       </c>
       <c r="W14" s="1">
-        <v>1211.610000</v>
+        <v>1211.6099999999999</v>
       </c>
       <c r="X14" s="1">
-        <v>-109.646000</v>
+        <v>-109.646</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>68113.161474</v>
+        <v>68113.161473999993</v>
       </c>
       <c r="AA14" s="1">
         <v>18.920323</v>
       </c>
       <c r="AB14" s="1">
-        <v>1219.410000</v>
+        <v>1219.4100000000001</v>
       </c>
       <c r="AC14" s="1">
-        <v>-92.106000</v>
+        <v>-92.105999999999995</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>68123.350789</v>
+        <v>68123.350789000004</v>
       </c>
       <c r="AF14" s="1">
-        <v>18.923153</v>
+        <v>18.923152999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>1224.220000</v>
+        <v>1224.22</v>
       </c>
       <c r="AH14" s="1">
-        <v>-87.314800</v>
+        <v>-87.314800000000005</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>68133.874903</v>
+        <v>68133.874903000004</v>
       </c>
       <c r="AK14" s="1">
-        <v>18.926076</v>
+        <v>18.926075999999998</v>
       </c>
       <c r="AL14" s="1">
-        <v>1231.400000</v>
+        <v>1231.4000000000001</v>
       </c>
       <c r="AM14" s="1">
-        <v>-90.335100</v>
+        <v>-90.335099999999997</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>68145.005127</v>
+        <v>68145.005126999997</v>
       </c>
       <c r="AP14" s="1">
-        <v>18.929168</v>
+        <v>18.929168000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1239.450000</v>
+        <v>1239.45</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.148000</v>
+        <v>-102.148</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>68156.064426</v>
+        <v>68156.064425999997</v>
       </c>
       <c r="AU14" s="1">
-        <v>18.932240</v>
+        <v>18.93224</v>
       </c>
       <c r="AV14" s="1">
-        <v>1249.530000</v>
+        <v>1249.53</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.384000</v>
+        <v>-121.384</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>68167.085567</v>
+        <v>68167.085567000002</v>
       </c>
       <c r="AZ14" s="1">
         <v>18.935302</v>
       </c>
       <c r="BA14" s="1">
-        <v>1258.090000</v>
+        <v>1258.0899999999999</v>
       </c>
       <c r="BB14" s="1">
-        <v>-138.827000</v>
+        <v>-138.827</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>68178.053564</v>
+        <v>68178.053564000002</v>
       </c>
       <c r="BE14" s="1">
-        <v>18.938348</v>
+        <v>18.938348000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1298.710000</v>
+        <v>1298.71</v>
       </c>
       <c r="BG14" s="1">
-        <v>-220.534000</v>
+        <v>-220.53399999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>68189.364333</v>
+        <v>68189.364333000005</v>
       </c>
       <c r="BJ14" s="1">
-        <v>18.941490</v>
+        <v>18.941490000000002</v>
       </c>
       <c r="BK14" s="1">
-        <v>1369.080000</v>
+        <v>1369.08</v>
       </c>
       <c r="BL14" s="1">
-        <v>-356.142000</v>
+        <v>-356.142</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>68201.220702</v>
+        <v>68201.220702000006</v>
       </c>
       <c r="BO14" s="1">
-        <v>18.944784</v>
+        <v>18.944783999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1484.320000</v>
+        <v>1484.32</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-576.434000</v>
+        <v>-576.43399999999997</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>68212.236351</v>
       </c>
       <c r="BT14" s="1">
-        <v>18.947843</v>
+        <v>18.947842999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1617.080000</v>
+        <v>1617.08</v>
       </c>
       <c r="BV14" s="1">
-        <v>-823.710000</v>
+        <v>-823.71</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>68223.106177</v>
+        <v>68223.106176999994</v>
       </c>
       <c r="BY14" s="1">
-        <v>18.950863</v>
+        <v>18.950862999999998</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1770.430000</v>
+        <v>1770.43</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1092.720000</v>
+        <v>-1092.72</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>68235.781439</v>
+        <v>68235.781438999998</v>
       </c>
       <c r="CD14" s="1">
-        <v>18.954384</v>
+        <v>18.954384000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>2189.510000</v>
+        <v>2189.5100000000002</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1740.450000</v>
+        <v>-1740.45</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>68061.844887</v>
+        <v>68061.844886999999</v>
       </c>
       <c r="B15" s="1">
-        <v>18.906068</v>
+        <v>18.906068000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>1143.290000</v>
+        <v>1143.29</v>
       </c>
       <c r="D15" s="1">
-        <v>-261.479000</v>
+        <v>-261.47899999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>68071.857128</v>
+        <v>68071.857128000003</v>
       </c>
       <c r="G15" s="1">
         <v>18.908849</v>
       </c>
       <c r="H15" s="1">
-        <v>1167.110000</v>
+        <v>1167.1099999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-219.945000</v>
+        <v>-219.94499999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>68081.984971</v>
+        <v>68081.984970999998</v>
       </c>
       <c r="L15" s="1">
         <v>18.911662</v>
       </c>
       <c r="M15" s="1">
-        <v>1195.700000</v>
+        <v>1195.7</v>
       </c>
       <c r="N15" s="1">
-        <v>-153.151000</v>
+        <v>-153.15100000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>68092.505613</v>
+        <v>68092.505613000001</v>
       </c>
       <c r="Q15" s="1">
-        <v>18.914585</v>
+        <v>18.914584999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>1203.820000</v>
+        <v>1203.82</v>
       </c>
       <c r="S15" s="1">
-        <v>-130.881000</v>
+        <v>-130.881</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>68103.014815</v>
+        <v>68103.014815000002</v>
       </c>
       <c r="V15" s="1">
-        <v>18.917504</v>
+        <v>18.917504000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>1211.540000</v>
+        <v>1211.54</v>
       </c>
       <c r="X15" s="1">
-        <v>-109.525000</v>
+        <v>-109.52500000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>68113.505730</v>
+        <v>68113.505730000004</v>
       </c>
       <c r="AA15" s="1">
-        <v>18.920418</v>
+        <v>18.920418000000002</v>
       </c>
       <c r="AB15" s="1">
-        <v>1219.410000</v>
+        <v>1219.4100000000001</v>
       </c>
       <c r="AC15" s="1">
-        <v>-92.048200</v>
+        <v>-92.048199999999994</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>68124.039235</v>
+        <v>68124.039235000004</v>
       </c>
       <c r="AF15" s="1">
         <v>18.923344</v>
       </c>
       <c r="AG15" s="1">
-        <v>1224.270000</v>
+        <v>1224.27</v>
       </c>
       <c r="AH15" s="1">
-        <v>-87.279100</v>
+        <v>-87.2791</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>68134.569302</v>
+        <v>68134.569302000004</v>
       </c>
       <c r="AK15" s="1">
-        <v>18.926269</v>
+        <v>18.926269000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>1231.390000</v>
+        <v>1231.3900000000001</v>
       </c>
       <c r="AM15" s="1">
-        <v>-90.333000</v>
+        <v>-90.332999999999998</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>68145.362744</v>
+        <v>68145.362743999998</v>
       </c>
       <c r="AP15" s="1">
-        <v>18.929267</v>
+        <v>18.929266999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1239.400000</v>
+        <v>1239.4000000000001</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.112000</v>
+        <v>-102.11199999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>68156.455272</v>
+        <v>68156.455272000007</v>
       </c>
       <c r="AU15" s="1">
-        <v>18.932349</v>
+        <v>18.932348999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1249.540000</v>
+        <v>1249.54</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.391000</v>
+        <v>-121.39100000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>68167.445129</v>
       </c>
       <c r="AZ15" s="1">
-        <v>18.935401</v>
+        <v>18.935400999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1258.090000</v>
+        <v>1258.0899999999999</v>
       </c>
       <c r="BB15" s="1">
-        <v>-138.822000</v>
+        <v>-138.822</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>68178.737082</v>
+        <v>68178.737082000007</v>
       </c>
       <c r="BE15" s="1">
-        <v>18.938538</v>
+        <v>18.938538000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1298.720000</v>
+        <v>1298.72</v>
       </c>
       <c r="BG15" s="1">
-        <v>-220.507000</v>
+        <v>-220.50700000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>68190.082044</v>
+        <v>68190.082043999995</v>
       </c>
       <c r="BJ15" s="1">
         <v>18.941689</v>
       </c>
       <c r="BK15" s="1">
-        <v>1369.010000</v>
+        <v>1369.01</v>
       </c>
       <c r="BL15" s="1">
-        <v>-356.255000</v>
+        <v>-356.255</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>68201.336270</v>
+        <v>68201.33627</v>
       </c>
       <c r="BO15" s="1">
-        <v>18.944816</v>
+        <v>18.944815999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1484.300000</v>
+        <v>1484.3</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-576.427000</v>
+        <v>-576.42700000000002</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>68212.671343</v>
+        <v>68212.671342999995</v>
       </c>
       <c r="BT15" s="1">
-        <v>18.947964</v>
+        <v>18.947963999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1617.220000</v>
+        <v>1617.22</v>
       </c>
       <c r="BV15" s="1">
-        <v>-823.724000</v>
+        <v>-823.72400000000005</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>68223.532737</v>
+        <v>68223.532737000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>18.950981</v>
+        <v>18.950980999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1770.340000</v>
+        <v>1770.34</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1092.620000</v>
+        <v>-1092.6199999999999</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>68236.300752</v>
+        <v>68236.300751999996</v>
       </c>
       <c r="CD15" s="1">
         <v>18.954528</v>
       </c>
       <c r="CE15" s="1">
-        <v>2189.190000</v>
+        <v>2189.19</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1738.930000</v>
+        <v>-1738.93</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>68062.118716</v>
+        <v>68062.118715999997</v>
       </c>
       <c r="B16" s="1">
-        <v>18.906144</v>
+        <v>18.906144000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>1143.420000</v>
+        <v>1143.42</v>
       </c>
       <c r="D16" s="1">
-        <v>-261.389000</v>
+        <v>-261.38900000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>68072.200359</v>
+        <v>68072.200358999995</v>
       </c>
       <c r="G16" s="1">
-        <v>18.908945</v>
+        <v>18.908944999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>1166.430000</v>
+        <v>1166.43</v>
       </c>
       <c r="I16" s="1">
-        <v>-220.204000</v>
+        <v>-220.20400000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>68082.329658</v>
+        <v>68082.329658000002</v>
       </c>
       <c r="L16" s="1">
-        <v>18.911758</v>
+        <v>18.911757999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1195.470000</v>
+        <v>1195.47</v>
       </c>
       <c r="N16" s="1">
-        <v>-153.525000</v>
+        <v>-153.52500000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>68092.851790</v>
+        <v>68092.851790000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>18.914681</v>
+        <v>18.914681000000002</v>
       </c>
       <c r="R16" s="1">
-        <v>1203.830000</v>
+        <v>1203.83</v>
       </c>
       <c r="S16" s="1">
-        <v>-130.957000</v>
+        <v>-130.95699999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>68103.356094</v>
+        <v>68103.356094000002</v>
       </c>
       <c r="V16" s="1">
-        <v>18.917599</v>
+        <v>18.917598999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>1211.610000</v>
+        <v>1211.6099999999999</v>
       </c>
       <c r="X16" s="1">
-        <v>-109.663000</v>
+        <v>-109.663</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>68114.204561</v>
+        <v>68114.204561000006</v>
       </c>
       <c r="AA16" s="1">
-        <v>18.920612</v>
+        <v>18.920611999999998</v>
       </c>
       <c r="AB16" s="1">
-        <v>1219.430000</v>
+        <v>1219.43</v>
       </c>
       <c r="AC16" s="1">
-        <v>-92.133700</v>
+        <v>-92.133700000000005</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>68124.381972</v>
+        <v>68124.381972000003</v>
       </c>
       <c r="AF16" s="1">
-        <v>18.923439</v>
+        <v>18.923438999999998</v>
       </c>
       <c r="AG16" s="1">
-        <v>1224.330000</v>
+        <v>1224.33</v>
       </c>
       <c r="AH16" s="1">
-        <v>-87.101900</v>
+        <v>-87.101900000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>68134.918486</v>
+        <v>68134.918485999995</v>
       </c>
       <c r="AK16" s="1">
-        <v>18.926366</v>
+        <v>18.926366000000002</v>
       </c>
       <c r="AL16" s="1">
-        <v>1231.400000</v>
+        <v>1231.4000000000001</v>
       </c>
       <c r="AM16" s="1">
-        <v>-90.333900</v>
+        <v>-90.3339</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>68145.726806</v>
+        <v>68145.726806000006</v>
       </c>
       <c r="AP16" s="1">
-        <v>18.929369</v>
+        <v>18.929369000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1239.430000</v>
+        <v>1239.43</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.119000</v>
+        <v>-102.119</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>68157.127383</v>
+        <v>68157.127382999999</v>
       </c>
       <c r="AU16" s="1">
-        <v>18.932535</v>
+        <v>18.932535000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1249.530000</v>
+        <v>1249.53</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.400000</v>
+        <v>-121.4</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>68168.116217</v>
+        <v>68168.116217000003</v>
       </c>
       <c r="AZ16" s="1">
-        <v>18.935588</v>
+        <v>18.935587999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1258.110000</v>
+        <v>1258.1099999999999</v>
       </c>
       <c r="BB16" s="1">
-        <v>-138.814000</v>
+        <v>-138.81399999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>68179.164604</v>
+        <v>68179.164604000005</v>
       </c>
       <c r="BE16" s="1">
-        <v>18.938657</v>
+        <v>18.938656999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1298.700000</v>
+        <v>1298.7</v>
       </c>
       <c r="BG16" s="1">
-        <v>-220.508000</v>
+        <v>-220.50800000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>68190.512609</v>
+        <v>68190.512608999998</v>
       </c>
       <c r="BJ16" s="1">
-        <v>18.941809</v>
+        <v>18.941808999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1369.100000</v>
+        <v>1369.1</v>
       </c>
       <c r="BL16" s="1">
-        <v>-356.177000</v>
+        <v>-356.17700000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>68201.733564</v>
+        <v>68201.733563999995</v>
       </c>
       <c r="BO16" s="1">
-        <v>18.944926</v>
+        <v>18.944925999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1484.350000</v>
+        <v>1484.35</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-576.468000</v>
+        <v>-576.46799999999996</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>68213.084045</v>
+        <v>68213.084044999996</v>
       </c>
       <c r="BT16" s="1">
         <v>18.948079</v>
       </c>
       <c r="BU16" s="1">
-        <v>1617.210000</v>
+        <v>1617.21</v>
       </c>
       <c r="BV16" s="1">
-        <v>-823.775000</v>
+        <v>-823.77499999999998</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>68223.952848</v>
+        <v>68223.952848000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>18.951098</v>
+        <v>18.951098000000002</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1770.250000</v>
+        <v>1770.25</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1092.570000</v>
+        <v>-1092.57</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>68236.817088</v>
+        <v>68236.817087999996</v>
       </c>
       <c r="CD16" s="1">
-        <v>18.954671</v>
+        <v>18.954671000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>2187.400000</v>
+        <v>2187.4</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1739.020000</v>
+        <v>-1739.02</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>68062.459461</v>
+        <v>68062.459461000006</v>
       </c>
       <c r="B17" s="1">
-        <v>18.906239</v>
+        <v>18.906238999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>1143.460000</v>
+        <v>1143.46</v>
       </c>
       <c r="D17" s="1">
-        <v>-261.215000</v>
+        <v>-261.21499999999997</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>68072.545079</v>
+        <v>68072.545079000003</v>
       </c>
       <c r="G17" s="1">
-        <v>18.909040</v>
+        <v>18.909040000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>1165.710000</v>
+        <v>1165.71</v>
       </c>
       <c r="I17" s="1">
-        <v>-219.378000</v>
+        <v>-219.37799999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>68082.675402</v>
+        <v>68082.675401999993</v>
       </c>
       <c r="L17" s="1">
-        <v>18.911854</v>
+        <v>18.911854000000002</v>
       </c>
       <c r="M17" s="1">
-        <v>1195.580000</v>
+        <v>1195.58</v>
       </c>
       <c r="N17" s="1">
-        <v>-153.546000</v>
+        <v>-153.54599999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>68093.555115</v>
+        <v>68093.555114999996</v>
       </c>
       <c r="Q17" s="1">
         <v>18.914876</v>
       </c>
       <c r="R17" s="1">
-        <v>1203.800000</v>
+        <v>1203.8</v>
       </c>
       <c r="S17" s="1">
-        <v>-130.988000</v>
+        <v>-130.988</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>68104.040543</v>
+        <v>68104.040542999996</v>
       </c>
       <c r="V17" s="1">
-        <v>18.917789</v>
+        <v>18.917788999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>1211.430000</v>
+        <v>1211.43</v>
       </c>
       <c r="X17" s="1">
-        <v>-109.557000</v>
+        <v>-109.557</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>68114.553743</v>
+        <v>68114.553742999997</v>
       </c>
       <c r="AA17" s="1">
-        <v>18.920709</v>
+        <v>18.920708999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>1219.410000</v>
+        <v>1219.4100000000001</v>
       </c>
       <c r="AC17" s="1">
-        <v>-92.092200</v>
+        <v>-92.092200000000005</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>68124.725239</v>
+        <v>68124.725239000007</v>
       </c>
       <c r="AF17" s="1">
-        <v>18.923535</v>
+        <v>18.923535000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1224.120000</v>
+        <v>1224.1199999999999</v>
       </c>
       <c r="AH17" s="1">
-        <v>-87.085300</v>
+        <v>-87.085300000000004</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>68135.266677</v>
+        <v>68135.266677000007</v>
       </c>
       <c r="AK17" s="1">
-        <v>18.926463</v>
+        <v>18.926462999999998</v>
       </c>
       <c r="AL17" s="1">
-        <v>1231.410000</v>
+        <v>1231.4100000000001</v>
       </c>
       <c r="AM17" s="1">
-        <v>-90.361900</v>
+        <v>-90.361900000000006</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>68146.398389</v>
+        <v>68146.398388999994</v>
       </c>
       <c r="AP17" s="1">
-        <v>18.929555</v>
+        <v>18.929555000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1239.440000</v>
+        <v>1239.44</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.109000</v>
+        <v>-102.10899999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>68157.580199</v>
+        <v>68157.580199000004</v>
       </c>
       <c r="AU17" s="1">
         <v>18.932661</v>
       </c>
       <c r="AV17" s="1">
-        <v>1249.490000</v>
+        <v>1249.49</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.382000</v>
+        <v>-121.38200000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>68168.555177</v>
+        <v>68168.555177000002</v>
       </c>
       <c r="AZ17" s="1">
-        <v>18.935710</v>
+        <v>18.93571</v>
       </c>
       <c r="BA17" s="1">
-        <v>1258.100000</v>
+        <v>1258.0999999999999</v>
       </c>
       <c r="BB17" s="1">
-        <v>-138.834000</v>
+        <v>-138.834</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>68179.524699</v>
+        <v>68179.524699000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>18.938757</v>
+        <v>18.938756999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1298.690000</v>
+        <v>1298.69</v>
       </c>
       <c r="BG17" s="1">
-        <v>-220.504000</v>
+        <v>-220.50399999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>68190.933713</v>
+        <v>68190.933713000006</v>
       </c>
       <c r="BJ17" s="1">
-        <v>18.941926</v>
+        <v>18.941925999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1369.020000</v>
+        <v>1369.02</v>
       </c>
       <c r="BL17" s="1">
-        <v>-356.247000</v>
+        <v>-356.24700000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>68202.153677</v>
+        <v>68202.153676999995</v>
       </c>
       <c r="BO17" s="1">
-        <v>18.945043</v>
+        <v>18.945042999999998</v>
       </c>
       <c r="BP17" s="1">
-        <v>1484.270000</v>
+        <v>1484.27</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-576.489000</v>
+        <v>-576.48900000000003</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>68213.502638</v>
+        <v>68213.502638000005</v>
       </c>
       <c r="BT17" s="1">
-        <v>18.948195</v>
+        <v>18.948194999999998</v>
       </c>
       <c r="BU17" s="1">
-        <v>1617.240000</v>
+        <v>1617.24</v>
       </c>
       <c r="BV17" s="1">
-        <v>-823.752000</v>
+        <v>-823.75199999999995</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>68224.398255</v>
+        <v>68224.398254999993</v>
       </c>
       <c r="BY17" s="1">
-        <v>18.951222</v>
+        <v>18.951222000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1770.460000</v>
+        <v>1770.46</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1092.670000</v>
+        <v>-1092.67</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>68237.334947</v>
+        <v>68237.334946999996</v>
       </c>
       <c r="CD17" s="1">
         <v>18.954815</v>
       </c>
       <c r="CE17" s="1">
-        <v>2187.630000</v>
+        <v>2187.63</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1738.710000</v>
+        <v>-1738.71</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>68062.800703</v>
+        <v>68062.800703000001</v>
       </c>
       <c r="B18" s="1">
-        <v>18.906334</v>
+        <v>18.906334000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>1143.530000</v>
+        <v>1143.53</v>
       </c>
       <c r="D18" s="1">
-        <v>-261.416000</v>
+        <v>-261.416</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>68073.236007</v>
       </c>
       <c r="G18" s="1">
-        <v>18.909232</v>
+        <v>18.909231999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>1166.100000</v>
+        <v>1166.0999999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-219.941000</v>
+        <v>-219.941</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>68083.367290</v>
+        <v>68083.367289999995</v>
       </c>
       <c r="L18" s="1">
         <v>18.912046</v>
       </c>
       <c r="M18" s="1">
-        <v>1195.260000</v>
+        <v>1195.26</v>
       </c>
       <c r="N18" s="1">
-        <v>-153.244000</v>
+        <v>-153.244</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>68093.902811</v>
+        <v>68093.902811000007</v>
       </c>
       <c r="Q18" s="1">
         <v>18.914973</v>
       </c>
       <c r="R18" s="1">
-        <v>1203.810000</v>
+        <v>1203.81</v>
       </c>
       <c r="S18" s="1">
-        <v>-131.029000</v>
+        <v>-131.029</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>68104.386765</v>
+        <v>68104.386765000003</v>
       </c>
       <c r="V18" s="1">
-        <v>18.917885</v>
+        <v>18.917884999999998</v>
       </c>
       <c r="W18" s="1">
-        <v>1211.540000</v>
+        <v>1211.54</v>
       </c>
       <c r="X18" s="1">
-        <v>-109.666000</v>
+        <v>-109.666</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>68114.892016</v>
+        <v>68114.892015999998</v>
       </c>
       <c r="AA18" s="1">
-        <v>18.920803</v>
+        <v>18.920802999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1219.410000</v>
+        <v>1219.4100000000001</v>
       </c>
       <c r="AC18" s="1">
-        <v>-92.102800</v>
+        <v>-92.102800000000002</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>68125.379426</v>
@@ -4683,73 +5099,73 @@
         <v>18.923717</v>
       </c>
       <c r="AG18" s="1">
-        <v>1224.020000</v>
+        <v>1224.02</v>
       </c>
       <c r="AH18" s="1">
-        <v>-87.289700</v>
+        <v>-87.289699999999996</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>68135.922885</v>
+        <v>68135.922885000007</v>
       </c>
       <c r="AK18" s="1">
-        <v>18.926645</v>
+        <v>18.926645000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>1231.410000</v>
+        <v>1231.4100000000001</v>
       </c>
       <c r="AM18" s="1">
-        <v>-90.334800</v>
+        <v>-90.334800000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>68146.836854</v>
+        <v>68146.836853999994</v>
       </c>
       <c r="AP18" s="1">
-        <v>18.929677</v>
+        <v>18.929677000000002</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1239.470000</v>
+        <v>1239.47</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.115000</v>
+        <v>-102.11499999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>68157.944263</v>
+        <v>68157.944262999998</v>
       </c>
       <c r="AU18" s="1">
         <v>18.932762</v>
       </c>
       <c r="AV18" s="1">
-        <v>1249.530000</v>
+        <v>1249.53</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.406000</v>
+        <v>-121.40600000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>68168.912328</v>
+        <v>68168.912328000006</v>
       </c>
       <c r="AZ18" s="1">
-        <v>18.935809</v>
+        <v>18.935808999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1258.100000</v>
+        <v>1258.0999999999999</v>
       </c>
       <c r="BB18" s="1">
-        <v>-138.806000</v>
+        <v>-138.80600000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>68179.889293</v>
@@ -4758,377 +5174,377 @@
         <v>18.938858</v>
       </c>
       <c r="BF18" s="1">
-        <v>1298.690000</v>
+        <v>1298.69</v>
       </c>
       <c r="BG18" s="1">
-        <v>-220.511000</v>
+        <v>-220.511</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>68191.290299</v>
       </c>
       <c r="BJ18" s="1">
-        <v>18.942025</v>
+        <v>18.942025000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1368.970000</v>
+        <v>1368.97</v>
       </c>
       <c r="BL18" s="1">
-        <v>-356.154000</v>
+        <v>-356.154</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>68202.583240</v>
+        <v>68202.583240000007</v>
       </c>
       <c r="BO18" s="1">
         <v>18.945162</v>
       </c>
       <c r="BP18" s="1">
-        <v>1484.330000</v>
+        <v>1484.33</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-576.464000</v>
+        <v>-576.46400000000006</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>68213.914318</v>
+        <v>68213.914317999996</v>
       </c>
       <c r="BT18" s="1">
-        <v>18.948310</v>
+        <v>18.948309999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1617.300000</v>
+        <v>1617.3</v>
       </c>
       <c r="BV18" s="1">
-        <v>-823.712000</v>
+        <v>-823.71199999999999</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>68224.818863</v>
+        <v>68224.818862999993</v>
       </c>
       <c r="BY18" s="1">
-        <v>18.951339</v>
+        <v>18.951339000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1770.390000</v>
+        <v>1770.39</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1092.590000</v>
+        <v>-1092.5899999999999</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>68237.886493</v>
+        <v>68237.886492999998</v>
       </c>
       <c r="CD18" s="1">
-        <v>18.954968</v>
+        <v>18.954968000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>2189.020000</v>
+        <v>2189.02</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1739.140000</v>
+        <v>-1739.14</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>68063.484659</v>
+        <v>68063.484658999994</v>
       </c>
       <c r="B19" s="1">
-        <v>18.906524</v>
+        <v>18.906524000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1143.370000</v>
+        <v>1143.3699999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-261.431000</v>
+        <v>-261.43099999999998</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>68073.578776</v>
+        <v>68073.578775999995</v>
       </c>
       <c r="G19" s="1">
-        <v>18.909327</v>
+        <v>18.909327000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1165.920000</v>
+        <v>1165.92</v>
       </c>
       <c r="I19" s="1">
-        <v>-219.724000</v>
+        <v>-219.72399999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>68083.713994</v>
+        <v>68083.713994000005</v>
       </c>
       <c r="L19" s="1">
         <v>18.912143</v>
       </c>
       <c r="M19" s="1">
-        <v>1195.180000</v>
+        <v>1195.18</v>
       </c>
       <c r="N19" s="1">
-        <v>-153.128000</v>
+        <v>-153.12799999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>68094.248533</v>
+        <v>68094.248533000005</v>
       </c>
       <c r="Q19" s="1">
-        <v>18.915069</v>
+        <v>18.915068999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>1203.740000</v>
+        <v>1203.74</v>
       </c>
       <c r="S19" s="1">
-        <v>-130.925000</v>
+        <v>-130.92500000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>68105.033564</v>
+        <v>68105.033563999998</v>
       </c>
       <c r="V19" s="1">
-        <v>18.918065</v>
+        <v>18.918064999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>1211.560000</v>
+        <v>1211.56</v>
       </c>
       <c r="X19" s="1">
-        <v>-109.507000</v>
+        <v>-109.50700000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>68115.575007</v>
+        <v>68115.575007000007</v>
       </c>
       <c r="AA19" s="1">
-        <v>18.920993</v>
+        <v>18.920992999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>1219.390000</v>
+        <v>1219.3900000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>-92.096400</v>
+        <v>-92.096400000000003</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>68125.757410</v>
+        <v>68125.757410000006</v>
       </c>
       <c r="AF19" s="1">
-        <v>18.923822</v>
+        <v>18.923822000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1224.240000</v>
+        <v>1224.24</v>
       </c>
       <c r="AH19" s="1">
-        <v>-87.153400</v>
+        <v>-87.153400000000005</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>68136.314723</v>
+        <v>68136.314723000003</v>
       </c>
       <c r="AK19" s="1">
-        <v>18.926754</v>
+        <v>18.926753999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1231.410000</v>
+        <v>1231.4100000000001</v>
       </c>
       <c r="AM19" s="1">
-        <v>-90.339600</v>
+        <v>-90.339600000000004</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>68147.195958</v>
+        <v>68147.195957999997</v>
       </c>
       <c r="AP19" s="1">
-        <v>18.929777</v>
+        <v>18.929777000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1239.440000</v>
+        <v>1239.44</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.157000</v>
+        <v>-102.157</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>68158.313783</v>
+        <v>68158.313783000005</v>
       </c>
       <c r="AU19" s="1">
         <v>18.932865</v>
       </c>
       <c r="AV19" s="1">
-        <v>1249.550000</v>
+        <v>1249.55</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.403000</v>
+        <v>-121.40300000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>68169.271941</v>
+        <v>68169.271940999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>18.935909</v>
+        <v>18.935908999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1258.100000</v>
+        <v>1258.0999999999999</v>
       </c>
       <c r="BB19" s="1">
-        <v>-138.820000</v>
+        <v>-138.82</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>68180.315320</v>
+        <v>68180.315319999994</v>
       </c>
       <c r="BE19" s="1">
         <v>18.938976</v>
       </c>
       <c r="BF19" s="1">
-        <v>1298.720000</v>
+        <v>1298.72</v>
       </c>
       <c r="BG19" s="1">
-        <v>-220.527000</v>
+        <v>-220.52699999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>68192.040746</v>
+        <v>68192.040745999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>18.942234</v>
+        <v>18.942233999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1369.040000</v>
+        <v>1369.04</v>
       </c>
       <c r="BL19" s="1">
-        <v>-356.155000</v>
+        <v>-356.15499999999997</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>68202.974592</v>
+        <v>68202.974591999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>18.945271</v>
+        <v>18.945271000000002</v>
       </c>
       <c r="BP19" s="1">
-        <v>1484.320000</v>
+        <v>1484.32</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-576.503000</v>
+        <v>-576.50300000000004</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>68214.326988</v>
+        <v>68214.326988000001</v>
       </c>
       <c r="BT19" s="1">
-        <v>18.948424</v>
+        <v>18.948423999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1617.340000</v>
+        <v>1617.34</v>
       </c>
       <c r="BV19" s="1">
-        <v>-823.681000</v>
+        <v>-823.68100000000004</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>68225.241949</v>
+        <v>68225.241949000003</v>
       </c>
       <c r="BY19" s="1">
         <v>18.951456</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1770.510000</v>
+        <v>1770.51</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1092.510000</v>
+        <v>-1092.51</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>68238.418172</v>
+        <v>68238.418172000005</v>
       </c>
       <c r="CD19" s="1">
         <v>18.955116</v>
       </c>
       <c r="CE19" s="1">
-        <v>2187.530000</v>
+        <v>2187.5300000000002</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1739.180000</v>
+        <v>-1739.18</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>68063.825447</v>
+        <v>68063.825446999996</v>
       </c>
       <c r="B20" s="1">
-        <v>18.906618</v>
+        <v>18.906618000000002</v>
       </c>
       <c r="C20" s="1">
-        <v>1143.520000</v>
+        <v>1143.52</v>
       </c>
       <c r="D20" s="1">
-        <v>-261.400000</v>
+        <v>-261.39999999999998</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>68073.926473</v>
       </c>
       <c r="G20" s="1">
-        <v>18.909424</v>
+        <v>18.909424000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>1166.490000</v>
+        <v>1166.49</v>
       </c>
       <c r="I20" s="1">
-        <v>-219.923000</v>
+        <v>-219.923</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>68084.060696</v>
@@ -5137,1720 +5553,1720 @@
         <v>18.912239</v>
       </c>
       <c r="M20" s="1">
-        <v>1195.500000</v>
+        <v>1195.5</v>
       </c>
       <c r="N20" s="1">
-        <v>-153.512000</v>
+        <v>-153.512</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>68094.898818</v>
+        <v>68094.898818000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>18.915250</v>
+        <v>18.91525</v>
       </c>
       <c r="R20" s="1">
-        <v>1203.770000</v>
+        <v>1203.77</v>
       </c>
       <c r="S20" s="1">
-        <v>-130.937000</v>
+        <v>-130.93700000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>68105.414956</v>
+        <v>68105.414955999993</v>
       </c>
       <c r="V20" s="1">
-        <v>18.918171</v>
+        <v>18.918171000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>1211.730000</v>
+        <v>1211.73</v>
       </c>
       <c r="X20" s="1">
-        <v>-109.575000</v>
+        <v>-109.575</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>68115.946511</v>
+        <v>68115.946511000002</v>
       </c>
       <c r="AA20" s="1">
-        <v>18.921096</v>
+        <v>18.921095999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1219.450000</v>
+        <v>1219.45</v>
       </c>
       <c r="AC20" s="1">
-        <v>-92.001300</v>
+        <v>-92.001300000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>68126.099617</v>
       </c>
       <c r="AF20" s="1">
-        <v>18.923917</v>
+        <v>18.923916999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>1224.090000</v>
+        <v>1224.0899999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-87.265300</v>
+        <v>-87.265299999999996</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>68136.662418</v>
+        <v>68136.662418000007</v>
       </c>
       <c r="AK20" s="1">
-        <v>18.926851</v>
+        <v>18.926850999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>1231.410000</v>
+        <v>1231.4100000000001</v>
       </c>
       <c r="AM20" s="1">
-        <v>-90.345700</v>
+        <v>-90.345699999999994</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>68147.556584</v>
+        <v>68147.556584000005</v>
       </c>
       <c r="AP20" s="1">
-        <v>18.929877</v>
+        <v>18.929877000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1239.450000</v>
+        <v>1239.45</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.123000</v>
+        <v>-102.123</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>68158.734389</v>
+        <v>68158.734389000005</v>
       </c>
       <c r="AU20" s="1">
-        <v>18.932982</v>
+        <v>18.932981999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1249.540000</v>
+        <v>1249.54</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.400000</v>
+        <v>-121.4</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>68169.688537</v>
+        <v>68169.688536999995</v>
       </c>
       <c r="AZ20" s="1">
-        <v>18.936025</v>
+        <v>18.936025000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1258.090000</v>
+        <v>1258.0899999999999</v>
       </c>
       <c r="BB20" s="1">
-        <v>-138.829000</v>
+        <v>-138.82900000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>68180.610442</v>
+        <v>68180.610442000005</v>
       </c>
       <c r="BE20" s="1">
-        <v>18.939058</v>
+        <v>18.939057999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1298.710000</v>
+        <v>1298.71</v>
       </c>
       <c r="BG20" s="1">
-        <v>-220.504000</v>
+        <v>-220.50399999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>68192.442040</v>
+        <v>68192.442039999994</v>
       </c>
       <c r="BJ20" s="1">
         <v>18.942345</v>
       </c>
       <c r="BK20" s="1">
-        <v>1369.080000</v>
+        <v>1369.08</v>
       </c>
       <c r="BL20" s="1">
-        <v>-356.224000</v>
+        <v>-356.22399999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>68203.368410</v>
+        <v>68203.368409999995</v>
       </c>
       <c r="BO20" s="1">
-        <v>18.945380</v>
+        <v>18.94538</v>
       </c>
       <c r="BP20" s="1">
-        <v>1484.280000</v>
+        <v>1484.28</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-576.473000</v>
+        <v>-576.47299999999996</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>68214.742637</v>
+        <v>68214.742637000003</v>
       </c>
       <c r="BT20" s="1">
-        <v>18.948540</v>
+        <v>18.948540000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1617.370000</v>
+        <v>1617.37</v>
       </c>
       <c r="BV20" s="1">
-        <v>-823.777000</v>
+        <v>-823.77700000000004</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>68226.039021</v>
+        <v>68226.039021000004</v>
       </c>
       <c r="BY20" s="1">
-        <v>18.951678</v>
+        <v>18.951678000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1770.270000</v>
+        <v>1770.27</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1092.670000</v>
+        <v>-1092.67</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>68238.930539</v>
+        <v>68238.930538999994</v>
       </c>
       <c r="CD20" s="1">
-        <v>18.955258</v>
+        <v>18.955258000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>2187.540000</v>
+        <v>2187.54</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1741.060000</v>
+        <v>-1741.06</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>68064.167650</v>
+        <v>68064.167650000003</v>
       </c>
       <c r="B21" s="1">
         <v>18.906713</v>
       </c>
       <c r="C21" s="1">
-        <v>1143.570000</v>
+        <v>1143.57</v>
       </c>
       <c r="D21" s="1">
-        <v>-261.335000</v>
+        <v>-261.33499999999998</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>68074.583636</v>
+        <v>68074.583635999996</v>
       </c>
       <c r="G21" s="1">
-        <v>18.909607</v>
+        <v>18.909607000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1166.070000</v>
+        <v>1166.07</v>
       </c>
       <c r="I21" s="1">
-        <v>-220.945000</v>
+        <v>-220.94499999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>68084.727817</v>
+        <v>68084.727817000006</v>
       </c>
       <c r="L21" s="1">
-        <v>18.912424</v>
+        <v>18.912424000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>1195.450000</v>
+        <v>1195.45</v>
       </c>
       <c r="N21" s="1">
-        <v>-153.362000</v>
+        <v>-153.36199999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>68095.295083</v>
+        <v>68095.295083000005</v>
       </c>
       <c r="Q21" s="1">
-        <v>18.915360</v>
+        <v>18.91536</v>
       </c>
       <c r="R21" s="1">
-        <v>1203.820000</v>
+        <v>1203.82</v>
       </c>
       <c r="S21" s="1">
-        <v>-130.959000</v>
+        <v>-130.959</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>68105.759180</v>
+        <v>68105.759179999994</v>
       </c>
       <c r="V21" s="1">
-        <v>18.918266</v>
+        <v>18.918265999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1211.670000</v>
+        <v>1211.67</v>
       </c>
       <c r="X21" s="1">
-        <v>-109.584000</v>
+        <v>-109.584</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>68116.297678</v>
+        <v>68116.297678000003</v>
       </c>
       <c r="AA21" s="1">
         <v>18.921194</v>
       </c>
       <c r="AB21" s="1">
-        <v>1219.410000</v>
+        <v>1219.4100000000001</v>
       </c>
       <c r="AC21" s="1">
-        <v>-92.058100</v>
+        <v>-92.058099999999996</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>68126.442905</v>
+        <v>68126.442905000004</v>
       </c>
       <c r="AF21" s="1">
-        <v>18.924012</v>
+        <v>18.924012000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1224.220000</v>
+        <v>1224.22</v>
       </c>
       <c r="AH21" s="1">
-        <v>-87.253500</v>
+        <v>-87.253500000000003</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>68137.012098</v>
+        <v>68137.012098000007</v>
       </c>
       <c r="AK21" s="1">
-        <v>18.926948</v>
+        <v>18.926947999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1231.380000</v>
+        <v>1231.3800000000001</v>
       </c>
       <c r="AM21" s="1">
-        <v>-90.334000</v>
+        <v>-90.334000000000003</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>68147.980643</v>
+        <v>68147.980643000003</v>
       </c>
       <c r="AP21" s="1">
-        <v>18.929995</v>
+        <v>18.929995000000002</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1239.450000</v>
+        <v>1239.45</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.127000</v>
+        <v>-102.127</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>68159.040916</v>
+        <v>68159.040915999998</v>
       </c>
       <c r="AU21" s="1">
-        <v>18.933067</v>
+        <v>18.933067000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1249.550000</v>
+        <v>1249.55</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.384000</v>
+        <v>-121.384</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>68169.990102</v>
+        <v>68169.990101999996</v>
       </c>
       <c r="AZ21" s="1">
-        <v>18.936108</v>
+        <v>18.936108000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1258.070000</v>
+        <v>1258.07</v>
       </c>
       <c r="BB21" s="1">
-        <v>-138.823000</v>
+        <v>-138.82300000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>68180.970041</v>
+        <v>68180.970040999993</v>
       </c>
       <c r="BE21" s="1">
-        <v>18.939158</v>
+        <v>18.939157999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1298.690000</v>
+        <v>1298.69</v>
       </c>
       <c r="BG21" s="1">
-        <v>-220.538000</v>
+        <v>-220.53800000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>68192.819495</v>
+        <v>68192.819495000003</v>
       </c>
       <c r="BJ21" s="1">
-        <v>18.942450</v>
+        <v>18.942450000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1368.960000</v>
+        <v>1368.96</v>
       </c>
       <c r="BL21" s="1">
-        <v>-356.169000</v>
+        <v>-356.16899999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>68203.790969</v>
+        <v>68203.790968999994</v>
       </c>
       <c r="BO21" s="1">
         <v>18.945497</v>
       </c>
       <c r="BP21" s="1">
-        <v>1484.330000</v>
+        <v>1484.33</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-576.477000</v>
+        <v>-576.47699999999998</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>68215.159292</v>
+        <v>68215.159291999997</v>
       </c>
       <c r="BT21" s="1">
-        <v>18.948655</v>
+        <v>18.948654999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1617.430000</v>
+        <v>1617.43</v>
       </c>
       <c r="BV21" s="1">
-        <v>-823.667000</v>
+        <v>-823.66700000000003</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>68226.560348</v>
+        <v>68226.560347999999</v>
       </c>
       <c r="BY21" s="1">
         <v>18.951822</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1770.540000</v>
+        <v>1770.54</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1092.690000</v>
+        <v>-1092.69</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>68239.454316</v>
+        <v>68239.454316000003</v>
       </c>
       <c r="CD21" s="1">
-        <v>18.955404</v>
+        <v>18.955404000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>2189.870000</v>
+        <v>2189.87</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1740.600000</v>
+        <v>-1740.6</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>68064.808518</v>
+        <v>68064.808518000005</v>
       </c>
       <c r="B22" s="1">
-        <v>18.906891</v>
+        <v>18.906891000000002</v>
       </c>
       <c r="C22" s="1">
-        <v>1143.670000</v>
+        <v>1143.67</v>
       </c>
       <c r="D22" s="1">
-        <v>-261.241000</v>
+        <v>-261.24099999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>68074.959108</v>
+        <v>68074.959107999995</v>
       </c>
       <c r="G22" s="1">
-        <v>18.909711</v>
+        <v>18.909711000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1166.030000</v>
+        <v>1166.03</v>
       </c>
       <c r="I22" s="1">
-        <v>-219.204000</v>
+        <v>-219.20400000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>68085.097867</v>
+        <v>68085.097867000004</v>
       </c>
       <c r="L22" s="1">
-        <v>18.912527</v>
+        <v>18.912527000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1195.300000</v>
+        <v>1195.3</v>
       </c>
       <c r="N22" s="1">
-        <v>-153.396000</v>
+        <v>-153.39599999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>68095.642313</v>
+        <v>68095.642313000004</v>
       </c>
       <c r="Q22" s="1">
-        <v>18.915456</v>
+        <v>18.915455999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1203.890000</v>
+        <v>1203.8900000000001</v>
       </c>
       <c r="S22" s="1">
-        <v>-131.014000</v>
+        <v>-131.01400000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>68106.104892</v>
+        <v>68106.104892000003</v>
       </c>
       <c r="V22" s="1">
-        <v>18.918362</v>
+        <v>18.918361999999998</v>
       </c>
       <c r="W22" s="1">
-        <v>1211.540000</v>
+        <v>1211.54</v>
       </c>
       <c r="X22" s="1">
-        <v>-109.658000</v>
+        <v>-109.658</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>68116.644878</v>
+        <v>68116.644878000006</v>
       </c>
       <c r="AA22" s="1">
-        <v>18.921290</v>
+        <v>18.921289999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1219.450000</v>
+        <v>1219.45</v>
       </c>
       <c r="AC22" s="1">
-        <v>-92.103700</v>
+        <v>-92.103700000000003</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>68126.862959</v>
+        <v>68126.862959000006</v>
       </c>
       <c r="AF22" s="1">
-        <v>18.924129</v>
+        <v>18.924129000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1224.180000</v>
+        <v>1224.18</v>
       </c>
       <c r="AH22" s="1">
-        <v>-87.159100</v>
+        <v>-87.159099999999995</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>68137.439153</v>
+        <v>68137.439152999999</v>
       </c>
       <c r="AK22" s="1">
         <v>18.927066</v>
       </c>
       <c r="AL22" s="1">
-        <v>1231.400000</v>
+        <v>1231.4000000000001</v>
       </c>
       <c r="AM22" s="1">
-        <v>-90.343200</v>
+        <v>-90.343199999999996</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>68148.277268</v>
+        <v>68148.277268000005</v>
       </c>
       <c r="AP22" s="1">
-        <v>18.930077</v>
+        <v>18.930077000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1239.450000</v>
+        <v>1239.45</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.136000</v>
+        <v>-102.136</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>68159.407990</v>
+        <v>68159.407990000007</v>
       </c>
       <c r="AU22" s="1">
-        <v>18.933169</v>
+        <v>18.933168999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1249.560000</v>
+        <v>1249.56</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.403000</v>
+        <v>-121.40300000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>68170.346230</v>
+        <v>68170.346229999996</v>
       </c>
       <c r="AZ22" s="1">
         <v>18.936207</v>
       </c>
       <c r="BA22" s="1">
-        <v>1258.090000</v>
+        <v>1258.0899999999999</v>
       </c>
       <c r="BB22" s="1">
-        <v>-138.824000</v>
+        <v>-138.82400000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>68181.331162</v>
+        <v>68181.331162000002</v>
       </c>
       <c r="BE22" s="1">
         <v>18.939259</v>
       </c>
       <c r="BF22" s="1">
-        <v>1298.690000</v>
+        <v>1298.69</v>
       </c>
       <c r="BG22" s="1">
-        <v>-220.498000</v>
+        <v>-220.49799999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>68193.592727</v>
+        <v>68193.592726999996</v>
       </c>
       <c r="BJ22" s="1">
-        <v>18.942665</v>
+        <v>18.942665000000002</v>
       </c>
       <c r="BK22" s="1">
-        <v>1369.080000</v>
+        <v>1369.08</v>
       </c>
       <c r="BL22" s="1">
-        <v>-356.161000</v>
+        <v>-356.161</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>68204.608904</v>
+        <v>68204.608903999993</v>
       </c>
       <c r="BO22" s="1">
-        <v>18.945725</v>
+        <v>18.945724999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1484.310000</v>
+        <v>1484.31</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-576.476000</v>
+        <v>-576.476</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>68215.572457</v>
+        <v>68215.572457000002</v>
       </c>
       <c r="BT22" s="1">
-        <v>18.948770</v>
+        <v>18.94877</v>
       </c>
       <c r="BU22" s="1">
-        <v>1617.560000</v>
+        <v>1617.56</v>
       </c>
       <c r="BV22" s="1">
-        <v>-823.718000</v>
+        <v>-823.71799999999996</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>68226.991835</v>
+        <v>68226.991834999993</v>
       </c>
       <c r="BY22" s="1">
-        <v>18.951942</v>
+        <v>18.951941999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1770.530000</v>
+        <v>1770.53</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1092.500000</v>
+        <v>-1092.5</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>68239.971642</v>
+        <v>68239.971642000004</v>
       </c>
       <c r="CD22" s="1">
         <v>18.955548</v>
       </c>
       <c r="CE22" s="1">
-        <v>2188.960000</v>
+        <v>2188.96</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1741.030000</v>
+        <v>-1741.03</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>68065.192881</v>
+        <v>68065.192880999995</v>
       </c>
       <c r="B23" s="1">
-        <v>18.906998</v>
+        <v>18.906998000000002</v>
       </c>
       <c r="C23" s="1">
-        <v>1143.510000</v>
+        <v>1143.51</v>
       </c>
       <c r="D23" s="1">
-        <v>-261.209000</v>
+        <v>-261.209</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>68075.304323</v>
+        <v>68075.304323000004</v>
       </c>
       <c r="G23" s="1">
-        <v>18.909807</v>
+        <v>18.909807000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1165.170000</v>
+        <v>1165.17</v>
       </c>
       <c r="I23" s="1">
-        <v>-219.653000</v>
+        <v>-219.65299999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>68085.441590</v>
+        <v>68085.441590000002</v>
       </c>
       <c r="L23" s="1">
         <v>18.912623</v>
       </c>
       <c r="M23" s="1">
-        <v>1195.540000</v>
+        <v>1195.54</v>
       </c>
       <c r="N23" s="1">
-        <v>-153.449000</v>
+        <v>-153.44900000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>68095.990970</v>
+        <v>68095.990969999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>18.915553</v>
+        <v>18.915552999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>1203.800000</v>
+        <v>1203.8</v>
       </c>
       <c r="S23" s="1">
-        <v>-131.007000</v>
+        <v>-131.00700000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>68106.523551</v>
+        <v>68106.523551000006</v>
       </c>
       <c r="V23" s="1">
-        <v>18.918479</v>
+        <v>18.918479000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>1211.530000</v>
+        <v>1211.53</v>
       </c>
       <c r="X23" s="1">
-        <v>-109.707000</v>
+        <v>-109.70699999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>68117.067964</v>
+        <v>68117.067964000002</v>
       </c>
       <c r="AA23" s="1">
         <v>18.921408</v>
       </c>
       <c r="AB23" s="1">
-        <v>1219.470000</v>
+        <v>1219.47</v>
       </c>
       <c r="AC23" s="1">
-        <v>-91.988500</v>
+        <v>-91.988500000000002</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>68127.152161</v>
+        <v>68127.152161000005</v>
       </c>
       <c r="AF23" s="1">
-        <v>18.924209</v>
+        <v>18.924209000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1224.390000</v>
+        <v>1224.3900000000001</v>
       </c>
       <c r="AH23" s="1">
-        <v>-87.186200</v>
+        <v>-87.186199999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>68137.716949</v>
+        <v>68137.716948999994</v>
       </c>
       <c r="AK23" s="1">
-        <v>18.927144</v>
+        <v>18.927143999999998</v>
       </c>
       <c r="AL23" s="1">
-        <v>1231.410000</v>
+        <v>1231.4100000000001</v>
       </c>
       <c r="AM23" s="1">
-        <v>-90.296900</v>
+        <v>-90.296899999999994</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>68148.638355</v>
+        <v>68148.638355000003</v>
       </c>
       <c r="AP23" s="1">
         <v>18.930177</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1239.440000</v>
+        <v>1239.44</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.127000</v>
+        <v>-102.127</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>68159.772517</v>
+        <v>68159.772517000005</v>
       </c>
       <c r="AU23" s="1">
-        <v>18.933270</v>
+        <v>18.93327</v>
       </c>
       <c r="AV23" s="1">
-        <v>1249.540000</v>
+        <v>1249.54</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.391000</v>
+        <v>-121.39100000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>68170.708806</v>
+        <v>68170.708805999995</v>
       </c>
       <c r="AZ23" s="1">
         <v>18.936308</v>
       </c>
       <c r="BA23" s="1">
-        <v>1258.110000</v>
+        <v>1258.1099999999999</v>
       </c>
       <c r="BB23" s="1">
-        <v>-138.824000</v>
+        <v>-138.82400000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>68182.060247</v>
+        <v>68182.060247000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>18.939461</v>
+        <v>18.939461000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1298.710000</v>
+        <v>1298.71</v>
       </c>
       <c r="BG23" s="1">
-        <v>-220.512000</v>
+        <v>-220.512</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>68193.965236</v>
+        <v>68193.965236000004</v>
       </c>
       <c r="BJ23" s="1">
-        <v>18.942768</v>
+        <v>18.942768000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1369.040000</v>
+        <v>1369.04</v>
       </c>
       <c r="BL23" s="1">
-        <v>-356.237000</v>
+        <v>-356.23700000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>68205.028520</v>
+        <v>68205.028520000007</v>
       </c>
       <c r="BO23" s="1">
-        <v>18.945841</v>
+        <v>18.945841000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1484.320000</v>
+        <v>1484.32</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-576.431000</v>
+        <v>-576.43100000000004</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>68215.987625</v>
+        <v>68215.987624999994</v>
       </c>
       <c r="BT23" s="1">
-        <v>18.948885</v>
+        <v>18.948885000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1617.600000</v>
+        <v>1617.6</v>
       </c>
       <c r="BV23" s="1">
-        <v>-823.876000</v>
+        <v>-823.87599999999998</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>68227.719007</v>
+        <v>68227.719007000007</v>
       </c>
       <c r="BY23" s="1">
-        <v>18.952144</v>
+        <v>18.952144000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1770.530000</v>
+        <v>1770.53</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1092.660000</v>
+        <v>-1092.6600000000001</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>68240.834712</v>
+        <v>68240.834711999996</v>
       </c>
       <c r="CD23" s="1">
-        <v>18.955787</v>
+        <v>18.955787000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>2187.710000</v>
+        <v>2187.71</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1741.270000</v>
+        <v>-1741.27</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>68065.536608</v>
+        <v>68065.536607999995</v>
       </c>
       <c r="B24" s="1">
-        <v>18.907094</v>
+        <v>18.907094000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1143.570000</v>
+        <v>1143.57</v>
       </c>
       <c r="D24" s="1">
-        <v>-261.082000</v>
+        <v>-261.08199999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>68075.649043</v>
+        <v>68075.649042999998</v>
       </c>
       <c r="G24" s="1">
         <v>18.909903</v>
       </c>
       <c r="H24" s="1">
-        <v>1166.360000</v>
+        <v>1166.3599999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-220.002000</v>
+        <v>-220.00200000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>68085.790246</v>
+        <v>68085.790246000004</v>
       </c>
       <c r="L24" s="1">
-        <v>18.912720</v>
+        <v>18.91272</v>
       </c>
       <c r="M24" s="1">
-        <v>1195.710000</v>
+        <v>1195.71</v>
       </c>
       <c r="N24" s="1">
-        <v>-153.281000</v>
+        <v>-153.28100000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>68096.422985</v>
+        <v>68096.422984999997</v>
       </c>
       <c r="Q24" s="1">
-        <v>18.915673</v>
+        <v>18.915673000000002</v>
       </c>
       <c r="R24" s="1">
-        <v>1203.790000</v>
+        <v>1203.79</v>
       </c>
       <c r="S24" s="1">
-        <v>-131.004000</v>
+        <v>-131.00399999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>68106.817177</v>
+        <v>68106.817177000004</v>
       </c>
       <c r="V24" s="1">
-        <v>18.918560</v>
+        <v>18.918559999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>1211.560000</v>
+        <v>1211.56</v>
       </c>
       <c r="X24" s="1">
-        <v>-109.765000</v>
+        <v>-109.765</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>68117.344732</v>
+        <v>68117.344731999998</v>
       </c>
       <c r="AA24" s="1">
-        <v>18.921485</v>
+        <v>18.921485000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1219.360000</v>
+        <v>1219.3599999999999</v>
       </c>
       <c r="AC24" s="1">
-        <v>-92.107400</v>
+        <v>-92.107399999999998</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>68127.497838</v>
+        <v>68127.497837999996</v>
       </c>
       <c r="AF24" s="1">
         <v>18.924305</v>
       </c>
       <c r="AG24" s="1">
-        <v>1224.180000</v>
+        <v>1224.18</v>
       </c>
       <c r="AH24" s="1">
-        <v>-87.321100</v>
+        <v>-87.321100000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>68138.089941</v>
+        <v>68138.089940999998</v>
       </c>
       <c r="AK24" s="1">
-        <v>18.927247</v>
+        <v>18.927247000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>1231.400000</v>
+        <v>1231.4000000000001</v>
       </c>
       <c r="AM24" s="1">
-        <v>-90.341300</v>
+        <v>-90.341300000000004</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>68148.998450</v>
+        <v>68148.998449999999</v>
       </c>
       <c r="AP24" s="1">
         <v>18.930277</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1239.450000</v>
+        <v>1239.45</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.123000</v>
+        <v>-102.123</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>68160.500643</v>
+        <v>68160.500643000007</v>
       </c>
       <c r="AU24" s="1">
-        <v>18.933472</v>
+        <v>18.933471999999998</v>
       </c>
       <c r="AV24" s="1">
-        <v>1249.540000</v>
+        <v>1249.54</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.394000</v>
+        <v>-121.39400000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>68171.426022</v>
       </c>
       <c r="AZ24" s="1">
-        <v>18.936507</v>
+        <v>18.936506999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1258.100000</v>
+        <v>1258.0999999999999</v>
       </c>
       <c r="BB24" s="1">
-        <v>-138.813000</v>
+        <v>-138.81299999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>68182.436744</v>
+        <v>68182.436744000006</v>
       </c>
       <c r="BE24" s="1">
-        <v>18.939566</v>
+        <v>18.939565999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1298.690000</v>
+        <v>1298.69</v>
       </c>
       <c r="BG24" s="1">
-        <v>-220.487000</v>
+        <v>-220.48699999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>68194.344662</v>
+        <v>68194.344662000003</v>
       </c>
       <c r="BJ24" s="1">
         <v>18.942874</v>
       </c>
       <c r="BK24" s="1">
-        <v>1369.000000</v>
+        <v>1369</v>
       </c>
       <c r="BL24" s="1">
-        <v>-356.185000</v>
+        <v>-356.185</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>68205.421319</v>
+        <v>68205.421319000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>18.945950</v>
+        <v>18.94595</v>
       </c>
       <c r="BP24" s="1">
-        <v>1484.370000</v>
+        <v>1484.37</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-576.483000</v>
+        <v>-576.48299999999995</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>68216.711260</v>
+        <v>68216.711259999996</v>
       </c>
       <c r="BT24" s="1">
-        <v>18.949086</v>
+        <v>18.949086000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1617.600000</v>
+        <v>1617.6</v>
       </c>
       <c r="BV24" s="1">
-        <v>-823.788000</v>
+        <v>-823.78800000000001</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>68227.863306</v>
+        <v>68227.863305999999</v>
       </c>
       <c r="BY24" s="1">
-        <v>18.952184</v>
+        <v>18.952183999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1770.400000</v>
+        <v>1770.4</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1092.730000</v>
+        <v>-1092.73</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>68241.049944</v>
+        <v>68241.049943999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>18.955847</v>
+        <v>18.955846999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>2189.680000</v>
+        <v>2189.6799999999998</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1740.860000</v>
+        <v>-1740.86</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>68065.880338</v>
+        <v>68065.880338000003</v>
       </c>
       <c r="B25" s="1">
-        <v>18.907189</v>
+        <v>18.907188999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>1143.100000</v>
+        <v>1143.0999999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-261.235000</v>
+        <v>-261.23500000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>68076.069659</v>
+        <v>68076.069659000001</v>
       </c>
       <c r="G25" s="1">
-        <v>18.910019</v>
+        <v>18.910018999999998</v>
       </c>
       <c r="H25" s="1">
-        <v>1166.080000</v>
+        <v>1166.08</v>
       </c>
       <c r="I25" s="1">
-        <v>-219.846000</v>
+        <v>-219.846</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>68086.286741</v>
+        <v>68086.286741000004</v>
       </c>
       <c r="L25" s="1">
-        <v>18.912857</v>
+        <v>18.912856999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>1195.450000</v>
+        <v>1195.45</v>
       </c>
       <c r="N25" s="1">
-        <v>-153.482000</v>
+        <v>-153.482</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>68096.701239</v>
+        <v>68096.701239000002</v>
       </c>
       <c r="Q25" s="1">
-        <v>18.915750</v>
+        <v>18.915749999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1203.720000</v>
+        <v>1203.72</v>
       </c>
       <c r="S25" s="1">
-        <v>-130.965000</v>
+        <v>-130.965</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>68107.161370</v>
+        <v>68107.161370000002</v>
       </c>
       <c r="V25" s="1">
-        <v>18.918656</v>
+        <v>18.918655999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>1211.660000</v>
+        <v>1211.6600000000001</v>
       </c>
       <c r="X25" s="1">
-        <v>-109.759000</v>
+        <v>-109.759</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>68117.695899</v>
+        <v>68117.695898999998</v>
       </c>
       <c r="AA25" s="1">
-        <v>18.921582</v>
+        <v>18.921582000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>1219.460000</v>
+        <v>1219.46</v>
       </c>
       <c r="AC25" s="1">
-        <v>-92.007300</v>
+        <v>-92.007300000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>68127.837598</v>
+        <v>68127.837597999998</v>
       </c>
       <c r="AF25" s="1">
-        <v>18.924399</v>
+        <v>18.924399000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>1224.170000</v>
+        <v>1224.17</v>
       </c>
       <c r="AH25" s="1">
-        <v>-87.179700</v>
+        <v>-87.179699999999997</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>68138.746641</v>
+        <v>68138.746641000005</v>
       </c>
       <c r="AK25" s="1">
-        <v>18.927430</v>
+        <v>18.927430000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>1231.390000</v>
+        <v>1231.3900000000001</v>
       </c>
       <c r="AM25" s="1">
-        <v>-90.344600</v>
+        <v>-90.3446</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>68149.724563</v>
+        <v>68149.724562999996</v>
       </c>
       <c r="AP25" s="1">
-        <v>18.930479</v>
+        <v>18.930478999999998</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1239.440000</v>
+        <v>1239.44</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.134000</v>
+        <v>-102.134</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>68160.889864</v>
+        <v>68160.889863999997</v>
       </c>
       <c r="AU25" s="1">
         <v>18.933581</v>
       </c>
       <c r="AV25" s="1">
-        <v>1249.530000</v>
+        <v>1249.53</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.377000</v>
+        <v>-121.377</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>68171.785620</v>
+        <v>68171.785619999995</v>
       </c>
       <c r="AZ25" s="1">
-        <v>18.936607</v>
+        <v>18.936606999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1258.090000</v>
+        <v>1258.0899999999999</v>
       </c>
       <c r="BB25" s="1">
-        <v>-138.826000</v>
+        <v>-138.82599999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>68182.797839</v>
+        <v>68182.797839000006</v>
       </c>
       <c r="BE25" s="1">
-        <v>18.939666</v>
+        <v>18.939665999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1298.720000</v>
+        <v>1298.72</v>
       </c>
       <c r="BG25" s="1">
-        <v>-220.528000</v>
+        <v>-220.52799999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>68195.031653</v>
+        <v>68195.031652999998</v>
       </c>
       <c r="BJ25" s="1">
         <v>18.943064</v>
       </c>
       <c r="BK25" s="1">
-        <v>1368.990000</v>
+        <v>1368.99</v>
       </c>
       <c r="BL25" s="1">
-        <v>-356.161000</v>
+        <v>-356.161</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>68206.156427</v>
+        <v>68206.156426999994</v>
       </c>
       <c r="BO25" s="1">
-        <v>18.946155</v>
+        <v>18.946155000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1484.350000</v>
+        <v>1484.35</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-576.389000</v>
+        <v>-576.38900000000001</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>68216.819882</v>
+        <v>68216.819881999996</v>
       </c>
       <c r="BT25" s="1">
-        <v>18.949117</v>
+        <v>18.949117000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1617.710000</v>
+        <v>1617.71</v>
       </c>
       <c r="BV25" s="1">
-        <v>-823.830000</v>
+        <v>-823.83</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>68228.287913</v>
+        <v>68228.287912999993</v>
       </c>
       <c r="BY25" s="1">
         <v>18.952302</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1770.570000</v>
+        <v>1770.57</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1092.680000</v>
+        <v>-1092.68</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>68241.569753</v>
+        <v>68241.569753000003</v>
       </c>
       <c r="CD25" s="1">
-        <v>18.955992</v>
+        <v>18.955991999999998</v>
       </c>
       <c r="CE25" s="1">
-        <v>2188.820000</v>
+        <v>2188.8200000000002</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1741.100000</v>
+        <v>-1741.1</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>68066.303919</v>
+        <v>68066.303918999998</v>
       </c>
       <c r="B26" s="1">
-        <v>18.907307</v>
+        <v>18.907306999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>1143.690000</v>
+        <v>1143.69</v>
       </c>
       <c r="D26" s="1">
-        <v>-261.591000</v>
+        <v>-261.59100000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>68076.346914</v>
+        <v>68076.346913999994</v>
       </c>
       <c r="G26" s="1">
-        <v>18.910096</v>
+        <v>18.910095999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>1166.260000</v>
+        <v>1166.26</v>
       </c>
       <c r="I26" s="1">
-        <v>-220.196000</v>
+        <v>-220.196</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>68086.481670</v>
+        <v>68086.481669999994</v>
       </c>
       <c r="L26" s="1">
-        <v>18.912912</v>
+        <v>18.912911999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1195.580000</v>
+        <v>1195.58</v>
       </c>
       <c r="N26" s="1">
-        <v>-153.393000</v>
+        <v>-153.393</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>68097.049959</v>
+        <v>68097.049958999996</v>
       </c>
       <c r="Q26" s="1">
-        <v>18.915847</v>
+        <v>18.915846999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>1203.800000</v>
+        <v>1203.8</v>
       </c>
       <c r="S26" s="1">
-        <v>-130.982000</v>
+        <v>-130.982</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>68107.503611</v>
+        <v>68107.503610999993</v>
       </c>
       <c r="V26" s="1">
         <v>18.918751</v>
       </c>
       <c r="W26" s="1">
-        <v>1211.670000</v>
+        <v>1211.67</v>
       </c>
       <c r="X26" s="1">
-        <v>-109.625000</v>
+        <v>-109.625</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>68118.043099</v>
+        <v>68118.043099000002</v>
       </c>
       <c r="AA26" s="1">
-        <v>18.921679</v>
+        <v>18.921679000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>1219.380000</v>
+        <v>1219.3800000000001</v>
       </c>
       <c r="AC26" s="1">
-        <v>-92.031500</v>
+        <v>-92.031499999999994</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>68128.525054</v>
+        <v>68128.525053999998</v>
       </c>
       <c r="AF26" s="1">
-        <v>18.924590</v>
+        <v>18.924589999999998</v>
       </c>
       <c r="AG26" s="1">
-        <v>1224.230000</v>
+        <v>1224.23</v>
       </c>
       <c r="AH26" s="1">
-        <v>-87.368800</v>
+        <v>-87.368799999999993</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>68139.116128</v>
+        <v>68139.116127999994</v>
       </c>
       <c r="AK26" s="1">
-        <v>18.927532</v>
+        <v>18.927531999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1231.400000</v>
+        <v>1231.4000000000001</v>
       </c>
       <c r="AM26" s="1">
-        <v>-90.378400</v>
+        <v>-90.378399999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>68150.102513</v>
+        <v>68150.102513000005</v>
       </c>
       <c r="AP26" s="1">
         <v>18.930584</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1239.450000</v>
+        <v>1239.45</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.148000</v>
+        <v>-102.148</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>68161.255619</v>
+        <v>68161.255619000003</v>
       </c>
       <c r="AU26" s="1">
-        <v>18.933682</v>
+        <v>18.933682000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1249.530000</v>
+        <v>1249.53</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.389000</v>
+        <v>-121.389</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>68172.143732</v>
+        <v>68172.143731999997</v>
       </c>
       <c r="AZ26" s="1">
-        <v>18.936707</v>
+        <v>18.936706999999998</v>
       </c>
       <c r="BA26" s="1">
-        <v>1258.120000</v>
+        <v>1258.1199999999999</v>
       </c>
       <c r="BB26" s="1">
-        <v>-138.847000</v>
+        <v>-138.84700000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>68183.460485</v>
+        <v>68183.460485000003</v>
       </c>
       <c r="BE26" s="1">
-        <v>18.939850</v>
+        <v>18.93985</v>
       </c>
       <c r="BF26" s="1">
-        <v>1298.710000</v>
+        <v>1298.71</v>
       </c>
       <c r="BG26" s="1">
-        <v>-220.510000</v>
+        <v>-220.51</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>68195.500373</v>
+        <v>68195.500373000003</v>
       </c>
       <c r="BJ26" s="1">
-        <v>18.943195</v>
+        <v>18.943194999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1368.970000</v>
+        <v>1368.97</v>
       </c>
       <c r="BL26" s="1">
-        <v>-356.152000</v>
+        <v>-356.15199999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>68206.662310</v>
+        <v>68206.66231</v>
       </c>
       <c r="BO26" s="1">
-        <v>18.946295</v>
+        <v>18.946294999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1484.290000</v>
+        <v>1484.29</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-576.417000</v>
+        <v>-576.41700000000003</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>68217.253417</v>
@@ -6859,45 +7275,46 @@
         <v>18.949237</v>
       </c>
       <c r="BU26" s="1">
-        <v>1617.760000</v>
+        <v>1617.76</v>
       </c>
       <c r="BV26" s="1">
-        <v>-823.894000</v>
+        <v>-823.89400000000001</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>68228.705514</v>
+        <v>68228.705514000001</v>
       </c>
       <c r="BY26" s="1">
-        <v>18.952418</v>
+        <v>18.952418000000002</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1770.470000</v>
+        <v>1770.47</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1092.390000</v>
+        <v>-1092.3900000000001</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>68242.124775</v>
+        <v>68242.124775000004</v>
       </c>
       <c r="CD26" s="1">
         <v>18.956146</v>
       </c>
       <c r="CE26" s="1">
-        <v>2187.370000</v>
+        <v>2187.37</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1740.940000</v>
+        <v>-1740.94</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>